--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="330">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -578,6 +578,9 @@
     <t xml:space="preserve">常回家看看</t>
   </si>
   <si>
+    <t xml:space="preserve">春庭雪</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -802,6 +805,9 @@
   </si>
   <si>
     <t xml:space="preserve">老公公老婆婆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恋爱狂</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -945,6 +951,9 @@
     <t xml:space="preserve">你就不要想起我</t>
   </si>
   <si>
+    <t xml:space="preserve">难念的经</t>
+  </si>
+  <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
@@ -1060,6 +1069,9 @@
   </si>
   <si>
     <t xml:space="preserve">神仙说他也不懂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">世界第一等</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
@@ -1517,7 +1529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1538,7 +1550,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1554,8 +1566,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1683,8 +1699,8 @@
   </sheetPr>
   <dimension ref="A1:I382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B219" activeCellId="0" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1711,7 +1727,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1722,7 +1739,8 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1733,7 +1751,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1744,7 +1763,8 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1775,8 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1766,7 +1787,8 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1777,7 +1799,8 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1811,8 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +1823,8 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1810,7 +1835,8 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1847,8 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="b">
+      <c r="C12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1859,8 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="b">
+      <c r="C13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1843,7 +1871,8 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="b">
+      <c r="C14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1883,8 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="b">
+      <c r="C15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1895,8 @@
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="b">
+      <c r="C16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1876,7 +1907,8 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="b">
+      <c r="C17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1887,7 +1919,8 @@
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="b">
+      <c r="C18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1898,7 +1931,8 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="b">
+      <c r="C19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I19" s="7" t="n">
@@ -1912,7 +1946,8 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="b">
+      <c r="C20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1923,7 +1958,8 @@
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="b">
+      <c r="C21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +1970,8 @@
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="b">
+      <c r="C22" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1945,7 +1982,8 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="b">
+      <c r="C23" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1956,7 +1994,8 @@
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="b">
+      <c r="C24" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1967,7 +2006,8 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="b">
+      <c r="C25" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1978,7 +2018,8 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="b">
+      <c r="C26" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1989,7 +2030,8 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="b">
+      <c r="C27" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2000,7 +2042,8 @@
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="b">
+      <c r="C28" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +2054,8 @@
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="b">
+      <c r="C29" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2022,7 +2066,8 @@
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="b">
+      <c r="C30" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2033,7 +2078,8 @@
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="b">
+      <c r="C31" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2044,7 +2090,8 @@
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="b">
+      <c r="C32" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2055,7 +2102,8 @@
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="b">
+      <c r="C33" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2066,7 +2114,8 @@
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="b">
+      <c r="C34" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2077,7 +2126,8 @@
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="b">
+      <c r="C35" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2088,7 +2138,8 @@
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="b">
+      <c r="C36" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2099,7 +2150,8 @@
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="b">
+      <c r="C37" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2110,7 +2162,8 @@
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="b">
+      <c r="C38" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2121,7 +2174,8 @@
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5" t="b">
+      <c r="C39" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2132,7 +2186,8 @@
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="b">
+      <c r="C40" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2143,7 +2198,8 @@
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="b">
+      <c r="C41" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2154,7 +2210,8 @@
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5" t="b">
+      <c r="C42" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2165,7 +2222,8 @@
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="b">
+      <c r="C43" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2176,7 +2234,8 @@
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="b">
+      <c r="C44" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2187,7 +2246,8 @@
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="5" t="b">
+      <c r="C45" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2198,7 +2258,8 @@
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="5" t="b">
+      <c r="C46" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2218,7 +2279,8 @@
       <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="9" t="b">
+      <c r="C52" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2291,8 @@
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="9" t="b">
+      <c r="C53" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2303,8 @@
       <c r="B54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="9" t="b">
+      <c r="C54" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2251,18 +2315,20 @@
       <c r="B55" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="9" t="b">
+      <c r="C56" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2339,8 @@
       <c r="B57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="9" t="b">
+      <c r="C57" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2284,7 +2351,8 @@
       <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="9" t="b">
+      <c r="C58" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2363,8 @@
       <c r="B59" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="9" t="b">
+      <c r="C59" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2375,8 @@
       <c r="B60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="9" t="b">
+      <c r="C60" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2317,18 +2387,20 @@
       <c r="B61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="9" t="b">
+      <c r="C62" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2336,7 +2408,8 @@
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="9" t="b">
+      <c r="C63" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2347,7 +2420,8 @@
       <c r="B64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="9" t="b">
+      <c r="C64" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2432,8 @@
       <c r="B65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="9" t="b">
+      <c r="C65" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2444,8 @@
       <c r="B66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="9" t="b">
+      <c r="C66" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2380,7 +2456,8 @@
       <c r="B67" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="9" t="b">
+      <c r="C67" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2468,8 @@
       <c r="B68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="9" t="b">
+      <c r="C68" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2402,7 +2480,8 @@
       <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="9" t="b">
+      <c r="C69" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2413,7 +2492,8 @@
       <c r="B70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="9" t="b">
+      <c r="C70" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2504,8 @@
       <c r="B71" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="9" t="b">
+      <c r="C71" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2516,8 @@
       <c r="B72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="9" t="b">
+      <c r="C72" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2446,7 +2528,8 @@
       <c r="B73" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="9" t="b">
+      <c r="C73" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2457,7 +2540,8 @@
       <c r="B74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="9" t="b">
+      <c r="C74" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2468,7 +2552,8 @@
       <c r="B75" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="9" t="b">
+      <c r="C75" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2564,8 @@
       <c r="B76" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="9" t="b">
+      <c r="C76" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2573,8 @@
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="9" t="b">
+      <c r="C77" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2585,8 @@
       <c r="B78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="9" t="b">
+      <c r="C78" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2509,7 +2597,8 @@
       <c r="B79" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="9" t="b">
+      <c r="C79" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2609,8 @@
       <c r="B80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="9" t="b">
+      <c r="C80" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +2621,8 @@
       <c r="B81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="9" t="b">
+      <c r="C81" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2542,7 +2633,8 @@
       <c r="B82" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="9" t="b">
+      <c r="C82" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2553,7 +2645,8 @@
       <c r="B83" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="9" t="b">
+      <c r="C83" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2564,7 +2657,8 @@
       <c r="B84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="9" t="b">
+      <c r="C84" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +2669,8 @@
       <c r="B85" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="9" t="b">
+      <c r="C85" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2586,1925 +2681,2159 @@
       <c r="B86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="9" t="b">
+      <c r="C86" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="9" t="b">
+      <c r="A87" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="9" t="b">
+      <c r="C88" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="9" t="b">
+      <c r="C89" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C90" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="9" t="b">
+      <c r="C91" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C92" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C93" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C94" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C95" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C96" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C97" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C98" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C99" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="9" t="b">
+        <v>86</v>
+      </c>
+      <c r="C100" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="9" t="b">
+      <c r="C101" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="9" t="b">
+      <c r="C102" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="9" t="b">
+      <c r="C103" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="9" t="b">
+        <v>97</v>
+      </c>
+      <c r="C104" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="9" t="b">
+      <c r="C105" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="9" t="b">
+      <c r="C106" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="9" t="b">
+      <c r="C107" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="9" t="b">
+      <c r="C108" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C109" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="9" t="b">
+      <c r="C110" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C111" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C112" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C113" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C114" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C115" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116" s="9" t="b">
+        <v>99</v>
+      </c>
+      <c r="C116" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="9" t="b">
+      <c r="C117" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="9" t="b">
+      <c r="C118" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="9" t="b">
+      <c r="C119" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C120" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="C120" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" s="9" t="b">
+      <c r="C121" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C122" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="C122" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C123" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="C123" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C124" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="C124" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="9" t="b">
+        <v>107</v>
+      </c>
+      <c r="C125" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="9" t="b">
+      <c r="C126" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="9" t="b">
+      <c r="C127" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="9" t="b">
+      <c r="C128" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C129" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C129" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C130" s="9" t="b">
+      <c r="C130" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C131" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C131" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C132" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C132" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C133" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C133" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C134" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C134" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C135" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C136" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C137" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C137" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C138" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C138" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C139" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C139" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C140" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C141" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C142" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C143" s="9" t="b">
+        <v>113</v>
+      </c>
+      <c r="C143" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="9" t="b">
+      <c r="C144" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="9" t="b">
+      <c r="C145" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="9" t="b">
+      <c r="C146" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C147" s="9" t="b">
+        <v>128</v>
+      </c>
+      <c r="C147" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C148" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C148" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C149" s="9" t="b">
+      <c r="C149" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C150" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C150" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C151" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C151" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C152" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C152" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C153" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C153" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C154" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="C154" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C155" s="9" t="b">
+        <v>129</v>
+      </c>
+      <c r="C155" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="9" t="b">
+      <c r="C156" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="9" t="b">
+      <c r="C157" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="9" t="b">
+      <c r="C158" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C159" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" s="9" t="b">
+      <c r="C160" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C161" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C161" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C162" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C162" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C163" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C164" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C164" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C165" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C165" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C166" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C166" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="9" t="b">
+        <v>137</v>
+      </c>
+      <c r="C167" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="9" t="b">
+      <c r="C168" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="9" t="b">
+      <c r="C169" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="9" t="b">
+      <c r="C170" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C171" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C171" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C172" s="9" t="b">
+      <c r="C172" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C173" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C173" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C174" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C174" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C175" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C175" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C176" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C176" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C177" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C177" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C178" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C178" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C179" s="9" t="b">
+        <v>146</v>
+      </c>
+      <c r="C179" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="9" t="b">
+      <c r="A180" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C180" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="9" t="b">
+      <c r="C181" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="9" t="b">
+      <c r="C182" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C183" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C183" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C184" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C184" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C185" s="9" t="b">
+      <c r="C185" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C186" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C186" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C187" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C187" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C188" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C188" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C189" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C189" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C190" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C190" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C191" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C191" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C192" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C192" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C193" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C193" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C194" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C194" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C195" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C195" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C196" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C196" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C197" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C197" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C198" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C198" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C199" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C199" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C200" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C200" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C201" s="9" t="b">
+        <v>156</v>
+      </c>
+      <c r="C201" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="9" t="b">
+      <c r="C202" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="9" t="b">
+      <c r="C203" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="9" t="b">
+      <c r="C204" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C205" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C205" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C206" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C206" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C207" s="9" t="b">
+      <c r="C207" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C208" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C208" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C209" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C209" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C210" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C210" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C211" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C211" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C212" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C212" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C213" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C213" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C214" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C214" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C215" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C215" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C216" s="9" t="b">
+        <v>175</v>
+      </c>
+      <c r="C216" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="9" t="b">
+      <c r="A217" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C217" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="9" t="b">
+      <c r="C218" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="9" t="b">
+      <c r="C219" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C220" s="9" t="b">
+        <v>188</v>
+      </c>
+      <c r="C220" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C221" s="9" t="b">
+        <v>188</v>
+      </c>
+      <c r="C221" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="9" t="b">
+      <c r="C222" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="9" t="b">
+      <c r="C223" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="9" t="b">
+      <c r="C224" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C225" s="9" t="b">
+        <v>190</v>
+      </c>
+      <c r="C225" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C226" s="9" t="b">
+        <v>190</v>
+      </c>
+      <c r="C226" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C227" s="9" t="b">
+        <v>190</v>
+      </c>
+      <c r="C227" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C228" s="9" t="b">
+      <c r="C228" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C229" s="9" t="b">
+        <v>190</v>
+      </c>
+      <c r="C229" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="9" t="b">
+      <c r="C230" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="9" t="b">
+      <c r="C231" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="9" t="b">
+      <c r="C232" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C233" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C233" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C234" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C234" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C235" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C235" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C236" s="9" t="b">
+      <c r="C236" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C237" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C237" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C238" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C238" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C239" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C239" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C240" s="9" t="b">
+        <v>195</v>
+      </c>
+      <c r="C240" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="9" t="b">
+      <c r="C241" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="9" t="b">
+      <c r="C242" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="9" t="b">
+      <c r="C243" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C244" s="9" t="b">
+        <v>203</v>
+      </c>
+      <c r="C244" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C245" s="9" t="b">
+        <v>203</v>
+      </c>
+      <c r="C245" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C246" s="9" t="b">
+        <v>203</v>
+      </c>
+      <c r="C246" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C247" s="9" t="b">
+      <c r="C247" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="9" t="b">
+      <c r="C248" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="9" t="b">
+      <c r="C249" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="9" t="b">
+      <c r="C250" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C251" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C251" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C252" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C252" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C253" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C253" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C254" s="9" t="b">
+      <c r="C254" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C255" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C255" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C256" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C256" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C257" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C257" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C258" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C258" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C259" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C259" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C260" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C260" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C261" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C261" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C262" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C262" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C263" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C263" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C264" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C264" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C265" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C265" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C266" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C266" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C267" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C267" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C268" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C268" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C269" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C269" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C270" s="9" t="b">
+        <v>207</v>
+      </c>
+      <c r="C270" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="9" t="b">
+      <c r="A271" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="9" t="b">
+      <c r="C272" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="9" t="b">
+      <c r="C273" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C274" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C274" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C275" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C275" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C276" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C276" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C277" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="C277" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C278" s="9" t="b">
+      <c r="C278" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C279" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C279" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C280" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C280" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C281" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C281" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C282" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C282" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C283" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C283" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C284" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C284" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C285" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C285" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C286" s="9" t="b">
+        <v>228</v>
+      </c>
+      <c r="C286" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="9" t="b">
+      <c r="C287" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="9" t="b">
+      <c r="C288" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="9" t="b">
+      <c r="C289" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C290" s="9" t="b">
+        <v>241</v>
+      </c>
+      <c r="C290" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C291" s="9" t="b">
+        <v>241</v>
+      </c>
+      <c r="C291" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="9" t="b">
+      <c r="C292" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="9" t="b">
+      <c r="C293" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="9" t="b">
+      <c r="C294" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C295" s="9" t="b">
+        <v>243</v>
+      </c>
+      <c r="C295" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -4512,944 +4841,1031 @@
       <c r="A296" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C296" s="9" t="b">
+      <c r="C296" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C297" s="9" t="b">
+      <c r="C297" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C298" s="9" t="b">
+      <c r="C298" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C299" s="9" t="b">
+      <c r="C299" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C300" s="9" t="b">
+      <c r="C300" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C301" s="9" t="b">
+      <c r="C301" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C302" s="9" t="b">
+      <c r="C302" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C303" s="9" t="b">
+      <c r="C303" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="9" t="b">
+      <c r="C304" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C305" s="9" t="b">
+      <c r="C305" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="9" t="b">
+      <c r="C306" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C307" s="9" t="b">
+      <c r="C307" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="9" t="b">
+      <c r="C308" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C309" s="9" t="b">
+      <c r="C309" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C310" s="9" t="b">
+      <c r="C310" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C311" s="9" t="b">
+      <c r="C311" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="9" t="b">
+      <c r="C312" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="9" t="b">
+      <c r="C313" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="9" t="b">
+      <c r="C314" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C315" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C315" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C316" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C316" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C317" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C317" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C318" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C318" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C319" s="9" t="b">
+      <c r="C319" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C320" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C320" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C321" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C321" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C322" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C322" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C323" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C323" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C324" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C324" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C325" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C325" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C326" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C326" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C327" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C327" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C328" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C328" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C329" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C329" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C330" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C330" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C331" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C331" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C332" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C332" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C333" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C333" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C334" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C334" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C335" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C335" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C336" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C336" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C337" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C337" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C338" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C338" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C339" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C339" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C340" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C340" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C341" s="9" t="b">
+        <v>262</v>
+      </c>
+      <c r="C341" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C342" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C342" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C343" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C343" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C344" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C344" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C345" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C345" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C346" s="9" t="b">
+      <c r="C346" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C347" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C347" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C348" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C348" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C349" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C349" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C350" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C350" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C351" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C351" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C352" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C352" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C353" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C353" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C354" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C354" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C355" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+      <c r="C355" s="9" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C356" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C356" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C357" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C357" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C358" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C358" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C359" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C359" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C360" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C360" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C361" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C361" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C362" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C362" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C363" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C363" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C364" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C364" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C365" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C365" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C366" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C366" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C367" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C367" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C368" s="9" t="b">
+        <v>289</v>
+      </c>
+      <c r="C368" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C369" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C369" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C370" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C370" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C371" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C371" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C372" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C372" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C373" s="9" t="b">
+      <c r="C373" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C374" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C374" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C375" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C375" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C376" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C376" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C377" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C377" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C378" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C378" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C379" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C379" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C380" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C380" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C381" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C381" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C382" s="9" t="b">
+        <v>316</v>
+      </c>
+      <c r="C382" s="9" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="333">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">iB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時雨 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">キセキ</t>
   </si>
   <si>
     <t xml:space="preserve">心做し</t>
@@ -119,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">世界一可愛い私</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただ透明</t>
   </si>
   <si>
     <t xml:space="preserve">サターン（土星）</t>
@@ -1529,7 +1538,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1551,6 +1560,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1697,10 +1710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B219" activeCellId="0" sqref="B219"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1720,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1756,8 +1769,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1768,8 +1781,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1780,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1902,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1900,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1912,8 +1925,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1925,7 +1938,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1935,11 +1948,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1952,7 +1962,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1963,8 +1973,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1974,8 +1984,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1987,8 +1998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1999,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -2024,7 +2035,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2035,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2047,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2059,8 +2070,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2071,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -2084,7 +2095,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2095,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -2107,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2119,8 +2130,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2131,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -2168,7 +2179,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2179,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -2203,8 +2214,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2215,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -2251,8 +2262,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2263,3608 +2274,3644 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="C55" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C56" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C57" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C59" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C60" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="C61" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C62" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="C65" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C67" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C68" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C69" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C70" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C71" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C72" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C73" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C74" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C75" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C76" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C78" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="C79" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="C81" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="C82" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="C83" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="C84" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="C85" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+      <c r="B87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C94" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C95" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C96" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C97" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C98" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C99" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C104" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
+      <c r="B101" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
+      <c r="B102" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
+      <c r="C107" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="C113" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="C114" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="C115" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C116" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+      <c r="B117" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C121" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+      <c r="B118" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C124" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="C124" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C125" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C129" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
+      <c r="B126" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+      <c r="B127" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C131" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C133" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C134" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C134" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C135" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C136" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C136" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C137" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C137" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C138" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C139" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C139" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C140" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C140" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C141" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C141" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C142" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C143" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C147" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="s">
+      <c r="B144" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="s">
+      <c r="B145" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C149" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C150" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C152" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="C152" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C153" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="C153" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C154" s="9" t="n">
+        <v>132</v>
+      </c>
+      <c r="C154" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C159" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
+      <c r="B156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
+      <c r="B157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C161" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C162" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C163" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C164" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C164" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C165" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C165" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C166" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C167" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C171" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="s">
+      <c r="B168" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C172" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="s">
+      <c r="B169" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C174" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C175" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C175" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C176" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C176" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C177" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C177" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C178" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C178" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C179" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C179" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C180" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
+      <c r="B180" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C180" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C183" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="s">
+      <c r="B181" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C184" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="B182" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C185" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C183" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C186" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C187" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C187" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C188" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C188" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C189" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C189" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C190" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C190" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C191" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C191" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C192" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C192" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C193" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C193" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C194" s="9" t="n">
+        <v>159</v>
+      </c>
+      <c r="C194" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C195" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C195" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C196" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C196" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C197" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C198" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C198" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C199" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="C199" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C200" s="9" t="n">
+        <v>159</v>
+      </c>
+      <c r="C200" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C201" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C201" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C205" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="s">
+      <c r="B202" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C202" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C206" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="s">
+      <c r="B203" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C203" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C207" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C204" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C208" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C209" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C209" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C210" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C210" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C211" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C211" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C212" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C212" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C213" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C213" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C214" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C214" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C215" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C215" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C216" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C216" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C217" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4" t="s">
+      <c r="B217" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C217" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C220" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="4" t="s">
+      <c r="B218" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C221" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4" t="s">
+      <c r="B219" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C219" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C225" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4" t="s">
+      <c r="B220" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C220" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C226" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="4" t="s">
+      <c r="C223" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C227" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C224" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C228" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C229" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C229" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C233" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4" t="s">
+      <c r="B230" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C230" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C234" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4" t="s">
+      <c r="B231" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C231" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C232" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C236" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C237" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C237" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C238" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C238" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C239" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C239" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C240" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C240" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C244" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="4" t="s">
+      <c r="B241" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C241" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C245" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="s">
+      <c r="B242" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C242" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C246" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C243" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C247" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="4" t="s">
+      <c r="C247" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C251" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="4" t="s">
+      <c r="B248" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C248" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C252" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="s">
+      <c r="B249" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C249" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C253" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C250" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C254" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C255" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C255" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C256" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C256" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C257" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C257" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C258" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C258" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C259" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C259" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C260" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C260" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C261" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C261" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C262" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C262" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C263" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C263" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C264" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C264" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C265" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C265" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C266" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C266" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C267" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C267" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C268" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C268" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C269" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C269" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C270" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C270" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B271" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C271" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4" t="s">
+      <c r="B271" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C271" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C274" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="4" t="s">
+      <c r="B272" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C272" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C275" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4" t="s">
+      <c r="B273" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C273" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C276" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C274" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C277" s="9" t="n">
+      <c r="C277" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C278" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C278" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C279" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C279" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C280" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C280" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C281" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C281" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C282" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C282" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C283" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C283" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C284" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C284" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C285" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C285" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C286" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C286" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C290" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="4" t="s">
+      <c r="B287" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C287" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C291" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="4" t="s">
+      <c r="B288" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C288" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C296" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="4" t="s">
+      <c r="B289" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C289" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C297" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C294" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+      <c r="C298" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C299" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="C299" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C300" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C301" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C302" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C303" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C305" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C307" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C309" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C310" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C311" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C315" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C316" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="C316" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C317" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="C317" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C318" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
         <v>266</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C319" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C319" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C320" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C320" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C321" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C321" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C322" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C322" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C323" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C323" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C324" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C324" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C325" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C325" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C326" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C326" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C327" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C327" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C328" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C328" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C329" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C329" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C330" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C330" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C331" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C331" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C332" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C332" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C333" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C333" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
         <v>281</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C334" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C334" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C335" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C335" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C336" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C336" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C337" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C337" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C338" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C338" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C339" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C339" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C340" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C340" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C341" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C341" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C342" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C342" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C343" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C343" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
         <v>291</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C344" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+      <c r="C344" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B345" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C345" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C346" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C346" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C347" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C347" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C348" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C348" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C349" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C349" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C350" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C350" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C351" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C351" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C352" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C352" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C353" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C353" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C354" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C354" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
         <v>302</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C355" s="9" t="n">
+        <v>292</v>
+      </c>
+      <c r="C355" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="8" t="s">
+      <c r="A356" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C356" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C356" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
         <v>304</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C357" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C357" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C358" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C358" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C359" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C359" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C360" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C360" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C361" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C361" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C362" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C362" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C363" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C363" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C364" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C364" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C365" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C365" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C366" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C366" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C367" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C367" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C368" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C368" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C369" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C369" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C370" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C370" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C371" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="C371" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B372" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C372" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C373" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C373" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C374" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C374" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C375" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C375" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C376" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C376" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C377" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C377" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C378" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C378" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C379" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C379" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C380" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C380" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C381" s="9" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="C381" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
         <v>329</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C382" s="9" t="n">
+        <v>319</v>
+      </c>
+      <c r="C382" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C383" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C384" s="10" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C385" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -1538,7 +1538,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1563,10 +1563,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1577,10 +1573,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1712,8 +1704,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C383" activeCellId="0" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1740,8 +1732,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1752,8 +1743,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1764,8 +1754,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1776,8 +1765,7 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1788,8 +1776,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1800,8 +1787,7 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1812,8 +1798,7 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1824,8 +1809,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1836,8 +1820,7 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C10" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1848,8 +1831,7 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1860,8 +1842,7 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1872,8 +1853,7 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C13" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1884,8 +1864,7 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1896,8 +1875,7 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C15" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1908,8 +1886,7 @@
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C16" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1920,20 +1897,18 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C17" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1944,8 +1919,7 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C19" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1956,8 +1930,7 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C20" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1968,23 +1941,21 @@
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C21" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1993,20 +1964,18 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C23" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C24" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2017,8 +1986,7 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2029,8 +1997,7 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2041,8 +2008,7 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C27" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2053,8 +2019,7 @@
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C28" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2065,20 +2030,18 @@
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C29" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C30" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2089,8 +2052,7 @@
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C31" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2101,8 +2063,7 @@
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C32" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2113,8 +2074,7 @@
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C33" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2125,20 +2085,18 @@
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C34" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C35" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2149,8 +2107,7 @@
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2161,8 +2118,7 @@
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C37" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2173,8 +2129,7 @@
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C38" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2185,8 +2140,7 @@
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C39" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2197,8 +2151,7 @@
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C40" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2209,20 +2162,18 @@
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C41" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C42" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2233,8 +2184,7 @@
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C43" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2245,8 +2195,7 @@
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C44" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2257,8 +2206,7 @@
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C45" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2269,8 +2217,7 @@
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C46" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2281,8 +2228,7 @@
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C47" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2293,20 +2239,18 @@
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C48" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C49" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2326,8 +2270,7 @@
       <c r="B55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C55" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2338,8 +2281,7 @@
       <c r="B56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C56" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2350,8 +2292,7 @@
       <c r="B57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C57" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2362,20 +2303,18 @@
       <c r="B58" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C58" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C59" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2386,8 +2325,7 @@
       <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C60" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2398,8 +2336,7 @@
       <c r="B61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C61" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2410,8 +2347,7 @@
       <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C62" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2422,8 +2358,7 @@
       <c r="B63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C63" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2434,20 +2369,18 @@
       <c r="B64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C64" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C65" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2455,8 +2388,7 @@
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C66" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2467,8 +2399,7 @@
       <c r="B67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C67" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2479,8 +2410,7 @@
       <c r="B68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C68" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2491,8 +2421,7 @@
       <c r="B69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C69" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2503,8 +2432,7 @@
       <c r="B70" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C70" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2515,8 +2443,7 @@
       <c r="B71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C71" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2527,8 +2454,7 @@
       <c r="B72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C72" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2539,8 +2465,7 @@
       <c r="B73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C73" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2551,8 +2476,7 @@
       <c r="B74" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C74" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2563,8 +2487,7 @@
       <c r="B75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C75" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2575,8 +2498,7 @@
       <c r="B76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C76" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2587,8 +2509,7 @@
       <c r="B77" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C77" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2599,8 +2520,7 @@
       <c r="B78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C78" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2611,8 +2531,7 @@
       <c r="B79" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C79" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2620,8 +2539,7 @@
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C80" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2632,8 +2550,7 @@
       <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C81" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2644,8 +2561,7 @@
       <c r="B82" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C82" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2656,8 +2572,7 @@
       <c r="B83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C83" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2668,8 +2583,7 @@
       <c r="B84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C84" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2680,8 +2594,7 @@
       <c r="B85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C85" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2692,8 +2605,7 @@
       <c r="B86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C86" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2704,8 +2616,7 @@
       <c r="B87" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C87" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2716,8 +2627,7 @@
       <c r="B88" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C88" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2728,32 +2638,28 @@
       <c r="B89" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C89" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C90" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C91" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C92" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2761,8 +2667,7 @@
       <c r="A93" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C93" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2773,8 +2678,7 @@
       <c r="B94" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C94" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2785,8 +2689,7 @@
       <c r="B95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C95" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2797,8 +2700,7 @@
       <c r="B96" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C96" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2809,8 +2711,7 @@
       <c r="B97" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C97" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2821,8 +2722,7 @@
       <c r="B98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C98" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2833,8 +2733,7 @@
       <c r="B99" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C99" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C99" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2845,8 +2744,7 @@
       <c r="B100" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C100" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2857,8 +2755,7 @@
       <c r="B101" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C101" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2869,8 +2766,7 @@
       <c r="B102" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C102" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C102" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2881,26 +2777,22 @@
       <c r="B103" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C103" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C104" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C105" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C106" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2908,8 +2800,7 @@
       <c r="A107" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C107" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C107" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2920,26 +2811,22 @@
       <c r="B108" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C108" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C109" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C110" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C111" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2947,8 +2834,7 @@
       <c r="A112" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C112" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C112" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2959,8 +2845,7 @@
       <c r="B113" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C113" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2971,8 +2856,7 @@
       <c r="B114" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C114" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C114" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2983,8 +2867,7 @@
       <c r="B115" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C115" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2995,8 +2878,7 @@
       <c r="B116" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C116" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3007,8 +2889,7 @@
       <c r="B117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C117" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C117" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3019,8 +2900,7 @@
       <c r="B118" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C118" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C118" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3031,26 +2911,22 @@
       <c r="B119" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C119" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C120" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C121" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C122" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3058,8 +2934,7 @@
       <c r="A123" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C123" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3070,8 +2945,7 @@
       <c r="B124" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C124" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3082,8 +2956,7 @@
       <c r="B125" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C125" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3094,8 +2967,7 @@
       <c r="B126" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C126" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3106,8 +2978,7 @@
       <c r="B127" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C127" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3118,26 +2989,22 @@
       <c r="B128" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C128" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C128" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C129" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C130" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C131" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3145,8 +3012,7 @@
       <c r="A132" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C132" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C132" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3157,8 +3023,7 @@
       <c r="B133" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C133" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C133" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3169,8 +3034,7 @@
       <c r="B134" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C134" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3181,8 +3045,7 @@
       <c r="B135" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C135" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C135" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3193,8 +3056,7 @@
       <c r="B136" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C136" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3205,8 +3067,7 @@
       <c r="B137" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C137" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C137" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3217,8 +3078,7 @@
       <c r="B138" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C138" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C138" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3229,8 +3089,7 @@
       <c r="B139" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C139" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3241,8 +3100,7 @@
       <c r="B140" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C140" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3253,8 +3111,7 @@
       <c r="B141" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C141" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C141" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3265,8 +3122,7 @@
       <c r="B142" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C142" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C142" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3277,8 +3133,7 @@
       <c r="B143" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C143" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C143" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3289,8 +3144,7 @@
       <c r="B144" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C144" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C144" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3301,8 +3155,7 @@
       <c r="B145" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C145" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C145" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3313,26 +3166,22 @@
       <c r="B146" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C146" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C146" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C147" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C148" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C149" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3340,8 +3189,7 @@
       <c r="A150" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C150" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C150" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3349,8 +3197,7 @@
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C151" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C151" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3361,8 +3208,7 @@
       <c r="B152" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C152" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C152" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3373,8 +3219,7 @@
       <c r="B153" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C153" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C153" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3385,8 +3230,7 @@
       <c r="B154" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C154" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C154" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3397,8 +3241,7 @@
       <c r="B155" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C155" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C155" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3409,8 +3252,7 @@
       <c r="B156" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C156" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C156" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3421,38 +3263,33 @@
       <c r="B157" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C157" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C157" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C158" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C158" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C159" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C160" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C161" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3460,8 +3297,7 @@
       <c r="A162" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C162" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C162" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3472,8 +3308,7 @@
       <c r="B163" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C163" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C163" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3484,8 +3319,7 @@
       <c r="B164" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C164" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C164" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3496,8 +3330,7 @@
       <c r="B165" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C165" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C165" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3508,8 +3341,7 @@
       <c r="B166" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C166" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3520,8 +3352,7 @@
       <c r="B167" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C167" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3532,8 +3363,7 @@
       <c r="B168" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C168" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C168" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3544,8 +3374,7 @@
       <c r="B169" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C169" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C169" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3556,26 +3385,22 @@
       <c r="B170" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C170" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C170" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C171" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C172" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C173" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3583,8 +3408,7 @@
       <c r="A174" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C174" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C174" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3595,8 +3419,7 @@
       <c r="B175" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C175" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C175" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3607,8 +3430,7 @@
       <c r="B176" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C176" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C176" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3619,8 +3441,7 @@
       <c r="B177" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C177" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C177" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3631,8 +3452,7 @@
       <c r="B178" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C178" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C178" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3643,8 +3463,7 @@
       <c r="B179" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C179" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C179" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3655,8 +3474,7 @@
       <c r="B180" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C180" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C180" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3667,8 +3485,7 @@
       <c r="B181" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C181" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C181" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3679,32 +3496,28 @@
       <c r="B182" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C182" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C182" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C183" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C183" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C184" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C185" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3712,8 +3525,7 @@
       <c r="A186" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C186" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C186" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3724,8 +3536,7 @@
       <c r="B187" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C187" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C187" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3736,8 +3547,7 @@
       <c r="B188" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C188" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C188" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3748,8 +3558,7 @@
       <c r="B189" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C189" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C189" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3760,8 +3569,7 @@
       <c r="B190" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C190" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C190" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3772,8 +3580,7 @@
       <c r="B191" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C191" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C191" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3784,8 +3591,7 @@
       <c r="B192" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C192" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C192" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3796,8 +3602,7 @@
       <c r="B193" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C193" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C193" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3808,8 +3613,7 @@
       <c r="B194" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C194" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C194" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3820,8 +3624,7 @@
       <c r="B195" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C195" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C195" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3832,8 +3635,7 @@
       <c r="B196" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C196" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C196" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3844,20 +3646,18 @@
       <c r="B197" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C197" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C197" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C198" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C198" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3868,8 +3668,7 @@
       <c r="B199" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C199" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C199" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3880,8 +3679,7 @@
       <c r="B200" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C200" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C200" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3892,8 +3690,7 @@
       <c r="B201" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C201" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C201" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3904,8 +3701,7 @@
       <c r="B202" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C202" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C202" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3916,38 +3712,33 @@
       <c r="B203" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C203" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C203" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C204" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C204" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C205" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C206" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C207" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3955,8 +3746,7 @@
       <c r="A208" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C208" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C208" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3967,8 +3757,7 @@
       <c r="B209" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C209" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C209" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3979,8 +3768,7 @@
       <c r="B210" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C210" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C210" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3991,8 +3779,7 @@
       <c r="B211" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C211" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C211" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4003,8 +3790,7 @@
       <c r="B212" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C212" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C212" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4015,8 +3801,7 @@
       <c r="B213" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C213" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C213" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4027,8 +3812,7 @@
       <c r="B214" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C214" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C214" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4039,8 +3823,7 @@
       <c r="B215" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C215" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C215" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4051,8 +3834,7 @@
       <c r="B216" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C216" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C216" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4063,8 +3845,7 @@
       <c r="B217" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C217" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C217" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4075,8 +3856,7 @@
       <c r="B218" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C218" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C218" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4087,32 +3867,28 @@
       <c r="B219" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C219" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C219" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C220" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C220" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C221" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C222" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4120,8 +3896,7 @@
       <c r="A223" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C223" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C223" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4132,26 +3907,22 @@
       <c r="B224" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C224" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C224" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C225" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C226" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C227" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4159,8 +3930,7 @@
       <c r="A228" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C228" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C228" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4171,8 +3941,7 @@
       <c r="B229" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C229" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C229" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4183,8 +3952,7 @@
       <c r="B230" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C230" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C230" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4195,8 +3963,7 @@
       <c r="B231" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C231" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C231" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4207,26 +3974,22 @@
       <c r="B232" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C232" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C232" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C233" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C234" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C235" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4234,8 +3997,7 @@
       <c r="A236" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C236" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C236" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4246,8 +4008,7 @@
       <c r="B237" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C237" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C237" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4258,8 +4019,7 @@
       <c r="B238" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C238" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C238" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4270,8 +4030,7 @@
       <c r="B239" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C239" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C239" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4282,8 +4041,7 @@
       <c r="B240" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C240" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C240" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4294,8 +4052,7 @@
       <c r="B241" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C241" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C241" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4306,8 +4063,7 @@
       <c r="B242" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C242" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C242" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4318,26 +4074,22 @@
       <c r="B243" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C243" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C243" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4345,8 +4097,7 @@
       <c r="A247" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C247" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4357,8 +4108,7 @@
       <c r="B248" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C248" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4369,8 +4119,7 @@
       <c r="B249" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C249" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4381,26 +4130,22 @@
       <c r="B250" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C250" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4408,8 +4153,7 @@
       <c r="A254" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C254" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4420,8 +4164,7 @@
       <c r="B255" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C255" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4432,8 +4175,7 @@
       <c r="B256" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C256" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4444,8 +4186,7 @@
       <c r="B257" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C257" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4456,8 +4197,7 @@
       <c r="B258" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C258" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4468,8 +4208,7 @@
       <c r="B259" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C259" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4480,8 +4219,7 @@
       <c r="B260" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C260" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4492,8 +4230,7 @@
       <c r="B261" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C261" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4504,8 +4241,7 @@
       <c r="B262" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C262" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4516,8 +4252,7 @@
       <c r="B263" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C263" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C263" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4528,8 +4263,7 @@
       <c r="B264" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C264" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C264" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4540,8 +4274,7 @@
       <c r="B265" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C265" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C265" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4552,8 +4285,7 @@
       <c r="B266" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C266" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C266" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4564,8 +4296,7 @@
       <c r="B267" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C267" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C267" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4576,8 +4307,7 @@
       <c r="B268" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C268" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C268" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4588,8 +4318,7 @@
       <c r="B269" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C269" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C269" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4600,8 +4329,7 @@
       <c r="B270" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C270" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C270" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4612,8 +4340,7 @@
       <c r="B271" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C271" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C271" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4624,8 +4351,7 @@
       <c r="B272" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C272" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C272" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4636,32 +4362,28 @@
       <c r="B273" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C273" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C273" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="11" t="s">
+      <c r="A274" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B274" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C274" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C274" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C275" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C276" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4669,8 +4391,7 @@
       <c r="A277" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C277" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C277" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4681,8 +4402,7 @@
       <c r="B278" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C278" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C278" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4693,8 +4413,7 @@
       <c r="B279" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C279" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C279" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4705,20 +4424,18 @@
       <c r="B280" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C280" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C280" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C281" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C281" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4729,8 +4446,7 @@
       <c r="B282" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C282" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C282" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4741,8 +4457,7 @@
       <c r="B283" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C283" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C283" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4753,8 +4468,7 @@
       <c r="B284" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C284" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C284" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4765,8 +4479,7 @@
       <c r="B285" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C285" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C285" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4777,8 +4490,7 @@
       <c r="B286" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C286" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C286" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4789,8 +4501,7 @@
       <c r="B287" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C287" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C287" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4801,8 +4512,7 @@
       <c r="B288" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C288" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C288" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4813,26 +4523,22 @@
       <c r="B289" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C289" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C289" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C290" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C291" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C292" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4840,8 +4546,7 @@
       <c r="A293" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C293" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C293" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4852,26 +4557,22 @@
       <c r="B294" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C294" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C294" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C295" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C296" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C297" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4879,8 +4580,7 @@
       <c r="A298" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C298" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C298" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4888,8 +4588,7 @@
       <c r="A299" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C299" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C299" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4900,8 +4599,7 @@
       <c r="B300" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C300" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C300" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4912,8 +4610,7 @@
       <c r="B301" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C301" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C301" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4924,8 +4621,7 @@
       <c r="B302" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C302" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C302" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4936,8 +4632,7 @@
       <c r="B303" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C303" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C303" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4948,8 +4643,7 @@
       <c r="B304" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C304" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4960,8 +4654,7 @@
       <c r="B305" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C305" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C305" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4972,8 +4665,7 @@
       <c r="B306" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C306" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4984,8 +4676,7 @@
       <c r="B307" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C307" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C307" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4996,8 +4687,7 @@
       <c r="B308" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C308" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5008,8 +4698,7 @@
       <c r="B309" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C309" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C309" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5020,8 +4709,7 @@
       <c r="B310" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C310" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C310" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5032,8 +4720,7 @@
       <c r="B311" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C311" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C311" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5044,8 +4731,7 @@
       <c r="B312" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C312" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5056,8 +4742,7 @@
       <c r="B313" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C313" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C313" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5068,8 +4753,7 @@
       <c r="B314" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C314" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5080,8 +4764,7 @@
       <c r="B315" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C315" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C315" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5092,8 +4775,7 @@
       <c r="B316" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C316" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C316" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5104,8 +4786,7 @@
       <c r="B317" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C317" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C317" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5113,8 +4794,7 @@
       <c r="A318" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C318" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C318" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5125,8 +4805,7 @@
       <c r="B319" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C319" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C319" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5137,8 +4816,7 @@
       <c r="B320" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C320" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C320" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5149,8 +4827,7 @@
       <c r="B321" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C321" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C321" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5161,8 +4838,7 @@
       <c r="B322" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C322" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C322" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5173,8 +4849,7 @@
       <c r="B323" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C323" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C323" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5185,8 +4860,7 @@
       <c r="B324" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C324" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C324" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5197,8 +4871,7 @@
       <c r="B325" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C325" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C325" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5209,8 +4882,7 @@
       <c r="B326" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C326" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C326" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5221,8 +4893,7 @@
       <c r="B327" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C327" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C327" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5233,8 +4904,7 @@
       <c r="B328" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C328" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C328" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5245,8 +4915,7 @@
       <c r="B329" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C329" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C329" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5257,8 +4926,7 @@
       <c r="B330" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C330" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C330" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5269,8 +4937,7 @@
       <c r="B331" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C331" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C331" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5281,8 +4948,7 @@
       <c r="B332" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C332" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C332" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5293,8 +4959,7 @@
       <c r="B333" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C333" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C333" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5305,8 +4970,7 @@
       <c r="B334" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C334" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C334" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5317,8 +4981,7 @@
       <c r="B335" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C335" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C335" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5329,8 +4992,7 @@
       <c r="B336" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C336" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C336" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5341,8 +5003,7 @@
       <c r="B337" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C337" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C337" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5353,8 +5014,7 @@
       <c r="B338" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C338" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C338" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5365,8 +5025,7 @@
       <c r="B339" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C339" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C339" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5377,8 +5036,7 @@
       <c r="B340" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C340" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C340" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5389,8 +5047,7 @@
       <c r="B341" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C341" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C341" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5401,8 +5058,7 @@
       <c r="B342" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C342" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C342" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5413,8 +5069,7 @@
       <c r="B343" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C343" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C343" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5425,8 +5080,7 @@
       <c r="B344" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C344" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C344" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5434,8 +5088,7 @@
       <c r="A345" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C345" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C345" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5446,8 +5099,7 @@
       <c r="B346" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C346" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C346" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5458,8 +5110,7 @@
       <c r="B347" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C347" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C347" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5470,8 +5121,7 @@
       <c r="B348" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C348" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C348" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5482,8 +5132,7 @@
       <c r="B349" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C349" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C349" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5494,8 +5143,7 @@
       <c r="B350" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C350" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C350" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5506,8 +5154,7 @@
       <c r="B351" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C351" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C351" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5518,8 +5165,7 @@
       <c r="B352" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C352" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C352" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5530,8 +5176,7 @@
       <c r="B353" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C353" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C353" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5542,8 +5187,7 @@
       <c r="B354" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C354" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C354" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5554,8 +5198,7 @@
       <c r="B355" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C355" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C355" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5566,8 +5209,7 @@
       <c r="B356" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C356" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C356" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5578,8 +5220,7 @@
       <c r="B357" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C357" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C357" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5590,20 +5231,18 @@
       <c r="B358" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C358" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C358" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C359" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C359" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5614,8 +5253,7 @@
       <c r="B360" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C360" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C360" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5626,8 +5264,7 @@
       <c r="B361" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C361" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C361" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5638,8 +5275,7 @@
       <c r="B362" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C362" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C362" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5650,8 +5286,7 @@
       <c r="B363" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C363" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C363" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5662,8 +5297,7 @@
       <c r="B364" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C364" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C364" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5674,8 +5308,7 @@
       <c r="B365" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C365" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C365" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5686,8 +5319,7 @@
       <c r="B366" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C366" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C366" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5698,8 +5330,7 @@
       <c r="B367" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C367" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C367" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5710,8 +5341,7 @@
       <c r="B368" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C368" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C368" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5722,8 +5352,7 @@
       <c r="B369" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C369" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C369" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5734,8 +5363,7 @@
       <c r="B370" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C370" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C370" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5746,8 +5374,7 @@
       <c r="B371" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C371" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C371" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5755,8 +5382,7 @@
       <c r="A372" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C372" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C372" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5767,8 +5393,7 @@
       <c r="B373" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C373" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C373" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5779,8 +5404,7 @@
       <c r="B374" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C374" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C374" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5791,8 +5415,7 @@
       <c r="B375" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C375" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C375" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5803,8 +5426,7 @@
       <c r="B376" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C376" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C376" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5815,8 +5437,7 @@
       <c r="B377" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C377" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C377" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5827,8 +5448,7 @@
       <c r="B378" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C378" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C378" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5839,8 +5459,7 @@
       <c r="B379" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C379" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C379" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5851,8 +5470,7 @@
       <c r="B380" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C380" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C380" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5863,8 +5481,7 @@
       <c r="B381" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C381" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C381" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5875,8 +5492,7 @@
       <c r="B382" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C382" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C382" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5887,8 +5503,7 @@
       <c r="B383" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C383" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C383" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5899,8 +5514,7 @@
       <c r="B384" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C384" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C384" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5911,8 +5525,7 @@
       <c r="B385" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C385" s="10" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C385" s="5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="333">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">奏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">恋</t>
@@ -1148,6 +1145,9 @@
   </si>
   <si>
     <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">晚风</t>
@@ -1704,8 +1704,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C383" activeCellId="0" sqref="C383"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,18 +1729,12 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="b">
@@ -1749,10 +1743,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>1</v>
@@ -1760,10 +1751,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>1</v>
@@ -1771,10 +1759,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>1</v>
@@ -1782,10 +1767,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -1793,10 +1775,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
@@ -1804,10 +1783,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -1815,10 +1791,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
@@ -1826,10 +1799,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>1</v>
@@ -1837,10 +1807,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>1</v>
@@ -1848,10 +1815,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="b">
         <v>1</v>
@@ -1859,10 +1823,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>1</v>
@@ -1870,10 +1831,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="b">
         <v>1</v>
@@ -1881,10 +1839,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="b">
         <v>1</v>
@@ -1892,10 +1847,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="b">
         <v>1</v>
@@ -1903,10 +1855,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1914,10 +1863,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1925,10 +1871,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="b">
         <v>1</v>
@@ -1936,10 +1879,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>1</v>
@@ -1947,10 +1887,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="b">
         <v>1</v>
@@ -1959,10 +1896,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="b">
         <v>1</v>
@@ -1970,10 +1904,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="b">
         <v>1</v>
@@ -1981,10 +1912,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="b">
         <v>1</v>
@@ -1992,10 +1920,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="b">
         <v>1</v>
@@ -2003,10 +1928,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="b">
         <v>1</v>
@@ -2014,10 +1936,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5" t="b">
         <v>1</v>
@@ -2025,10 +1944,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="b">
         <v>1</v>
@@ -2036,10 +1952,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="b">
         <v>1</v>
@@ -2047,10 +1960,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="b">
         <v>1</v>
@@ -2058,10 +1968,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5" t="b">
         <v>1</v>
@@ -2069,10 +1976,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C33" s="5" t="b">
         <v>1</v>
@@ -2080,10 +1984,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5" t="b">
         <v>1</v>
@@ -2091,10 +1992,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="b">
         <v>1</v>
@@ -2102,10 +2000,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="b">
         <v>1</v>
@@ -2113,10 +2008,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="b">
         <v>1</v>
@@ -2124,10 +2016,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="b">
         <v>1</v>
@@ -2135,10 +2024,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="b">
         <v>1</v>
@@ -2146,10 +2032,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C40" s="5" t="b">
         <v>1</v>
@@ -2157,10 +2040,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C41" s="5" t="b">
         <v>1</v>
@@ -2168,10 +2048,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C42" s="5" t="b">
         <v>1</v>
@@ -2179,10 +2056,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C43" s="5" t="b">
         <v>1</v>
@@ -2190,10 +2064,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5" t="b">
         <v>1</v>
@@ -2201,10 +2072,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="b">
         <v>1</v>
@@ -2212,10 +2080,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="b">
         <v>1</v>
@@ -2223,10 +2088,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="b">
         <v>1</v>
@@ -2234,10 +2096,7 @@
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C48" s="5" t="b">
         <v>1</v>
@@ -2245,10 +2104,7 @@
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5" t="b">
         <v>1</v>
@@ -2260,15 +2116,15 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5" t="b">
         <v>0</v>
@@ -2276,10 +2132,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="5" t="b">
         <v>0</v>
@@ -2287,10 +2143,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="5" t="b">
         <v>0</v>
@@ -2298,10 +2154,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="5" t="b">
         <v>0</v>
@@ -2309,10 +2165,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="5" t="b">
         <v>0</v>
@@ -2320,10 +2176,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="5" t="b">
         <v>0</v>
@@ -2331,10 +2187,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="5" t="b">
         <v>0</v>
@@ -2342,10 +2198,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="5" t="b">
         <v>0</v>
@@ -2353,10 +2209,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="5" t="b">
         <v>0</v>
@@ -2364,10 +2220,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="5" t="b">
         <v>0</v>
@@ -2375,10 +2231,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="5" t="b">
         <v>0</v>
@@ -2386,7 +2242,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5" t="b">
         <v>0</v>
@@ -2394,10 +2250,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5" t="b">
         <v>0</v>
@@ -2405,10 +2261,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="5" t="b">
         <v>0</v>
@@ -2416,10 +2272,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="5" t="b">
         <v>0</v>
@@ -2427,10 +2283,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="5" t="b">
         <v>0</v>
@@ -2438,10 +2294,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="5" t="b">
         <v>0</v>
@@ -2449,10 +2305,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="5" t="b">
         <v>0</v>
@@ -2460,10 +2316,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="5" t="b">
         <v>0</v>
@@ -2471,10 +2327,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="5" t="b">
         <v>0</v>
@@ -2482,10 +2338,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="5" t="b">
         <v>0</v>
@@ -2493,10 +2349,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="5" t="b">
         <v>0</v>
@@ -2504,10 +2360,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="5" t="b">
         <v>0</v>
@@ -2515,10 +2371,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5" t="b">
         <v>0</v>
@@ -2526,10 +2382,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="5" t="b">
         <v>0</v>
@@ -2537,7 +2393,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="5" t="b">
         <v>0</v>
@@ -2545,10 +2401,10 @@
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="5" t="b">
         <v>0</v>
@@ -2556,10 +2412,10 @@
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="5" t="b">
         <v>0</v>
@@ -2567,10 +2423,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="5" t="b">
         <v>0</v>
@@ -2578,10 +2434,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="5" t="b">
         <v>0</v>
@@ -2589,10 +2445,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="5" t="b">
         <v>0</v>
@@ -2600,10 +2456,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="5" t="b">
         <v>0</v>
@@ -2611,10 +2467,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="5" t="b">
         <v>0</v>
@@ -2622,10 +2478,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="5" t="b">
         <v>0</v>
@@ -2633,10 +2489,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="5" t="b">
         <v>0</v>
@@ -2644,10 +2500,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="5" t="b">
         <v>0</v>
@@ -2665,7 +2521,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="5" t="b">
         <v>0</v>
@@ -2673,10 +2529,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="5" t="b">
         <v>0</v>
@@ -2684,10 +2540,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="5" t="b">
         <v>0</v>
@@ -2695,10 +2551,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="5" t="b">
         <v>0</v>
@@ -2706,10 +2562,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="5" t="b">
         <v>0</v>
@@ -2717,10 +2573,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" s="5" t="b">
         <v>0</v>
@@ -2728,10 +2584,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="5" t="b">
         <v>0</v>
@@ -2739,10 +2595,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="5" t="b">
         <v>0</v>
@@ -2750,10 +2606,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="5" t="b">
         <v>0</v>
@@ -2761,10 +2617,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="5" t="b">
         <v>0</v>
@@ -2772,10 +2628,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="5" t="b">
         <v>0</v>
@@ -2798,7 +2654,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="5" t="b">
         <v>0</v>
@@ -2806,10 +2662,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="5" t="b">
         <v>0</v>
@@ -2832,7 +2688,7 @@
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" s="5" t="b">
         <v>0</v>
@@ -2840,10 +2696,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="5" t="b">
         <v>0</v>
@@ -2851,10 +2707,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" s="5" t="b">
         <v>0</v>
@@ -2862,10 +2718,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C115" s="5" t="b">
         <v>0</v>
@@ -2873,10 +2729,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C116" s="5" t="b">
         <v>0</v>
@@ -2884,10 +2740,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" s="5" t="b">
         <v>0</v>
@@ -2895,10 +2751,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C118" s="5" t="b">
         <v>0</v>
@@ -2906,10 +2762,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="5" t="b">
         <v>0</v>
@@ -2932,7 +2788,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="5" t="b">
         <v>0</v>
@@ -2940,10 +2796,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C124" s="5" t="b">
         <v>0</v>
@@ -2951,10 +2807,10 @@
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" s="5" t="b">
         <v>0</v>
@@ -2962,10 +2818,10 @@
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126" s="5" t="b">
         <v>0</v>
@@ -2973,10 +2829,10 @@
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="5" t="b">
         <v>0</v>
@@ -2984,10 +2840,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128" s="5" t="b">
         <v>0</v>
@@ -3010,7 +2866,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C132" s="5" t="b">
         <v>0</v>
@@ -3018,10 +2874,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="5" t="b">
         <v>0</v>
@@ -3029,10 +2885,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C134" s="5" t="b">
         <v>0</v>
@@ -3040,10 +2896,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C135" s="5" t="b">
         <v>0</v>
@@ -3051,10 +2907,10 @@
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" s="5" t="b">
         <v>0</v>
@@ -3062,10 +2918,10 @@
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C137" s="5" t="b">
         <v>0</v>
@@ -3073,10 +2929,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C138" s="5" t="b">
         <v>0</v>
@@ -3084,10 +2940,10 @@
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C139" s="5" t="b">
         <v>0</v>
@@ -3095,10 +2951,10 @@
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C140" s="5" t="b">
         <v>0</v>
@@ -3106,10 +2962,10 @@
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" s="5" t="b">
         <v>0</v>
@@ -3117,10 +2973,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C142" s="5" t="b">
         <v>0</v>
@@ -3128,10 +2984,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C143" s="5" t="b">
         <v>0</v>
@@ -3139,10 +2995,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C144" s="5" t="b">
         <v>0</v>
@@ -3150,10 +3006,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145" s="5" t="b">
         <v>0</v>
@@ -3161,10 +3017,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C146" s="5" t="b">
         <v>0</v>
@@ -3187,7 +3043,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="5" t="b">
         <v>0</v>
@@ -3195,7 +3051,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="5" t="b">
         <v>0</v>
@@ -3203,10 +3059,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="5" t="b">
         <v>0</v>
@@ -3214,10 +3070,10 @@
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="5" t="b">
         <v>0</v>
@@ -3225,10 +3081,10 @@
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="5" t="b">
         <v>0</v>
@@ -3236,10 +3092,10 @@
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="5" t="b">
         <v>0</v>
@@ -3247,10 +3103,10 @@
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="5" t="b">
         <v>0</v>
@@ -3258,10 +3114,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="5" t="b">
         <v>0</v>
@@ -3269,10 +3125,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" s="5" t="b">
         <v>0</v>
@@ -3295,7 +3151,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C162" s="5" t="b">
         <v>0</v>
@@ -3303,10 +3159,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C163" s="5" t="b">
         <v>0</v>
@@ -3314,10 +3170,10 @@
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C164" s="5" t="b">
         <v>0</v>
@@ -3325,10 +3181,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C165" s="5" t="b">
         <v>0</v>
@@ -3336,10 +3192,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166" s="5" t="b">
         <v>0</v>
@@ -3347,10 +3203,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" s="5" t="b">
         <v>0</v>
@@ -3358,10 +3214,10 @@
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C168" s="5" t="b">
         <v>0</v>
@@ -3369,10 +3225,10 @@
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C169" s="5" t="b">
         <v>0</v>
@@ -3380,10 +3236,10 @@
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170" s="5" t="b">
         <v>0</v>
@@ -3406,7 +3262,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C174" s="5" t="b">
         <v>0</v>
@@ -3414,10 +3270,10 @@
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C175" s="5" t="b">
         <v>0</v>
@@ -3425,10 +3281,10 @@
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176" s="5" t="b">
         <v>0</v>
@@ -3436,10 +3292,10 @@
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C177" s="5" t="b">
         <v>0</v>
@@ -3447,10 +3303,10 @@
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C178" s="5" t="b">
         <v>0</v>
@@ -3458,10 +3314,10 @@
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C179" s="5" t="b">
         <v>0</v>
@@ -3469,10 +3325,10 @@
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C180" s="5" t="b">
         <v>0</v>
@@ -3480,10 +3336,10 @@
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C181" s="5" t="b">
         <v>0</v>
@@ -3491,10 +3347,10 @@
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182" s="5" t="b">
         <v>0</v>
@@ -3502,10 +3358,10 @@
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C183" s="5" t="b">
         <v>0</v>
@@ -3523,7 +3379,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C186" s="5" t="b">
         <v>0</v>
@@ -3531,10 +3387,10 @@
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C187" s="5" t="b">
         <v>0</v>
@@ -3542,10 +3398,10 @@
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C188" s="5" t="b">
         <v>0</v>
@@ -3553,10 +3409,10 @@
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C189" s="5" t="b">
         <v>0</v>
@@ -3564,10 +3420,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C190" s="5" t="b">
         <v>0</v>
@@ -3575,10 +3431,10 @@
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C191" s="5" t="b">
         <v>0</v>
@@ -3586,10 +3442,10 @@
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C192" s="5" t="b">
         <v>0</v>
@@ -3597,10 +3453,10 @@
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C193" s="5" t="b">
         <v>0</v>
@@ -3608,10 +3464,10 @@
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C194" s="5" t="b">
         <v>0</v>
@@ -3619,10 +3475,10 @@
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C195" s="5" t="b">
         <v>0</v>
@@ -3630,10 +3486,10 @@
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C196" s="5" t="b">
         <v>0</v>
@@ -3641,10 +3497,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C197" s="5" t="b">
         <v>0</v>
@@ -3652,10 +3508,10 @@
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C198" s="5" t="b">
         <v>0</v>
@@ -3663,10 +3519,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C199" s="5" t="b">
         <v>0</v>
@@ -3674,10 +3530,10 @@
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C200" s="5" t="b">
         <v>0</v>
@@ -3685,10 +3541,10 @@
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C201" s="5" t="b">
         <v>0</v>
@@ -3696,10 +3552,10 @@
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C202" s="5" t="b">
         <v>0</v>
@@ -3707,10 +3563,10 @@
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C203" s="5" t="b">
         <v>0</v>
@@ -3718,10 +3574,10 @@
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C204" s="5" t="b">
         <v>0</v>
@@ -3744,7 +3600,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C208" s="5" t="b">
         <v>0</v>
@@ -3752,10 +3608,10 @@
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C209" s="5" t="b">
         <v>0</v>
@@ -3763,10 +3619,10 @@
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C210" s="5" t="b">
         <v>0</v>
@@ -3774,10 +3630,10 @@
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C211" s="5" t="b">
         <v>0</v>
@@ -3785,10 +3641,10 @@
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C212" s="5" t="b">
         <v>0</v>
@@ -3796,10 +3652,10 @@
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C213" s="5" t="b">
         <v>0</v>
@@ -3807,10 +3663,10 @@
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C214" s="5" t="b">
         <v>0</v>
@@ -3818,10 +3674,10 @@
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C215" s="5" t="b">
         <v>0</v>
@@ -3829,10 +3685,10 @@
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C216" s="5" t="b">
         <v>0</v>
@@ -3840,10 +3696,10 @@
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C217" s="5" t="b">
         <v>0</v>
@@ -3851,10 +3707,10 @@
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C218" s="5" t="b">
         <v>0</v>
@@ -3862,10 +3718,10 @@
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C219" s="5" t="b">
         <v>0</v>
@@ -3873,10 +3729,10 @@
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C220" s="5" t="b">
         <v>0</v>
@@ -3894,7 +3750,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C223" s="5" t="b">
         <v>0</v>
@@ -3902,10 +3758,10 @@
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C224" s="5" t="b">
         <v>0</v>
@@ -3928,7 +3784,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C228" s="5" t="b">
         <v>0</v>
@@ -3936,10 +3792,10 @@
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C229" s="5" t="b">
         <v>0</v>
@@ -3947,10 +3803,10 @@
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C230" s="5" t="b">
         <v>0</v>
@@ -3958,10 +3814,10 @@
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C231" s="5" t="b">
         <v>0</v>
@@ -3969,10 +3825,10 @@
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C232" s="5" t="b">
         <v>0</v>
@@ -3995,7 +3851,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C236" s="5" t="b">
         <v>0</v>
@@ -4003,10 +3859,10 @@
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C237" s="5" t="b">
         <v>0</v>
@@ -4014,10 +3870,10 @@
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C238" s="5" t="b">
         <v>0</v>
@@ -4025,10 +3881,10 @@
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C239" s="5" t="b">
         <v>0</v>
@@ -4036,10 +3892,10 @@
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C240" s="5" t="b">
         <v>0</v>
@@ -4047,10 +3903,10 @@
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C241" s="5" t="b">
         <v>0</v>
@@ -4058,10 +3914,10 @@
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C242" s="5" t="b">
         <v>0</v>
@@ -4069,10 +3925,10 @@
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C243" s="5" t="b">
         <v>0</v>
@@ -4095,7 +3951,7 @@
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
@@ -4103,10 +3959,10 @@
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
@@ -4114,10 +3970,10 @@
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
@@ -4125,10 +3981,10 @@
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
@@ -4151,7 +4007,7 @@
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
@@ -4159,10 +4015,10 @@
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
@@ -4170,10 +4026,10 @@
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
@@ -4181,10 +4037,10 @@
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
@@ -4192,10 +4048,10 @@
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
@@ -4203,10 +4059,10 @@
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
@@ -4214,10 +4070,10 @@
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
@@ -4225,10 +4081,10 @@
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
@@ -4236,10 +4092,10 @@
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
@@ -4247,10 +4103,10 @@
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C263" s="5" t="b">
         <v>0</v>
@@ -4258,10 +4114,10 @@
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C264" s="5" t="b">
         <v>0</v>
@@ -4269,10 +4125,10 @@
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C265" s="5" t="b">
         <v>0</v>
@@ -4280,10 +4136,10 @@
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C266" s="5" t="b">
         <v>0</v>
@@ -4291,10 +4147,10 @@
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C267" s="5" t="b">
         <v>0</v>
@@ -4302,10 +4158,10 @@
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C268" s="5" t="b">
         <v>0</v>
@@ -4313,10 +4169,10 @@
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C269" s="5" t="b">
         <v>0</v>
@@ -4324,10 +4180,10 @@
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C270" s="5" t="b">
         <v>0</v>
@@ -4335,10 +4191,10 @@
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C271" s="5" t="b">
         <v>0</v>
@@ -4346,10 +4202,10 @@
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C272" s="5" t="b">
         <v>0</v>
@@ -4357,10 +4213,10 @@
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C273" s="5" t="b">
         <v>0</v>
@@ -4368,10 +4224,10 @@
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C274" s="5" t="b">
         <v>0</v>
@@ -4389,7 +4245,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C277" s="5" t="b">
         <v>0</v>
@@ -4397,10 +4253,10 @@
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C278" s="5" t="b">
         <v>0</v>
@@ -4408,10 +4264,10 @@
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C279" s="5" t="b">
         <v>0</v>
@@ -4419,10 +4275,10 @@
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C280" s="5" t="b">
         <v>0</v>
@@ -4430,10 +4286,10 @@
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C281" s="5" t="b">
         <v>0</v>
@@ -4441,10 +4297,10 @@
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C282" s="5" t="b">
         <v>0</v>
@@ -4452,10 +4308,10 @@
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C283" s="5" t="b">
         <v>0</v>
@@ -4463,10 +4319,10 @@
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C284" s="5" t="b">
         <v>0</v>
@@ -4474,10 +4330,10 @@
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C285" s="5" t="b">
         <v>0</v>
@@ -4485,10 +4341,10 @@
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C286" s="5" t="b">
         <v>0</v>
@@ -4496,10 +4352,10 @@
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C287" s="5" t="b">
         <v>0</v>
@@ -4507,10 +4363,10 @@
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C288" s="5" t="b">
         <v>0</v>
@@ -4518,10 +4374,10 @@
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C289" s="5" t="b">
         <v>0</v>
@@ -4544,7 +4400,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C293" s="5" t="b">
         <v>0</v>
@@ -4552,10 +4408,10 @@
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C294" s="5" t="b">
         <v>0</v>
@@ -4578,7 +4434,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C298" s="5" t="b">
         <v>0</v>
@@ -4586,7 +4442,7 @@
     </row>
     <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C299" s="5" t="b">
         <v>0</v>
@@ -4597,7 +4453,7 @@
         <v>247</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C300" s="5" t="b">
         <v>0</v>
@@ -4608,7 +4464,7 @@
         <v>248</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C301" s="5" t="b">
         <v>0</v>
@@ -4619,7 +4475,7 @@
         <v>249</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C302" s="5" t="b">
         <v>0</v>
@@ -4630,7 +4486,7 @@
         <v>250</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C303" s="5" t="b">
         <v>0</v>
@@ -4641,7 +4497,7 @@
         <v>251</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C304" s="5" t="b">
         <v>0</v>
@@ -4652,7 +4508,7 @@
         <v>252</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C305" s="5" t="b">
         <v>0</v>
@@ -4663,7 +4519,7 @@
         <v>253</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C306" s="5" t="b">
         <v>0</v>
@@ -4674,7 +4530,7 @@
         <v>254</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C307" s="5" t="b">
         <v>0</v>
@@ -4685,7 +4541,7 @@
         <v>255</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C308" s="5" t="b">
         <v>0</v>
@@ -4696,7 +4552,7 @@
         <v>256</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C309" s="5" t="b">
         <v>0</v>
@@ -4707,7 +4563,7 @@
         <v>257</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C310" s="5" t="b">
         <v>0</v>
@@ -4718,7 +4574,7 @@
         <v>258</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C311" s="5" t="b">
         <v>0</v>
@@ -4729,7 +4585,7 @@
         <v>259</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C312" s="5" t="b">
         <v>0</v>
@@ -4740,7 +4596,7 @@
         <v>260</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C313" s="5" t="b">
         <v>0</v>
@@ -4751,7 +4607,7 @@
         <v>261</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C314" s="5" t="b">
         <v>0</v>
@@ -4762,7 +4618,7 @@
         <v>262</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C315" s="5" t="b">
         <v>0</v>
@@ -4773,7 +4629,7 @@
         <v>263</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C316" s="5" t="b">
         <v>0</v>
@@ -4784,7 +4640,7 @@
         <v>264</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C317" s="5" t="b">
         <v>0</v>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="335">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">奏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">恋</t>
@@ -424,6 +427,9 @@
     <t xml:space="preserve">爱你</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">爱呀</t>
   </si>
   <si>
@@ -1433,7 +1439,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1538,7 +1544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,6 +1579,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1704,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,3660 +1739,3669 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="b">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="b">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5" t="b">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="b">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="5" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="5" t="b">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="5" t="b">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="5" t="b">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="5" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="5" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>51</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="9"/>
+    </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="5" t="b">
-        <v>0</v>
+      <c r="C55" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="5" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="5" t="b">
-        <v>0</v>
+      <c r="C68" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="5" t="b">
-        <v>0</v>
+      <c r="C82" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>87</v>
+      <c r="A90" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="5" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="5" t="b">
-        <v>0</v>
+      <c r="C91" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="5" t="b">
-        <v>0</v>
+      <c r="C92" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="5" t="b">
-        <v>0</v>
+      <c r="C95" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="5" t="b">
-        <v>0</v>
+      <c r="C104" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="5" t="b">
-        <v>0</v>
+      <c r="C105" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="5" t="b">
-        <v>0</v>
+      <c r="C106" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="5" t="b">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C108" s="5" t="b">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="5" t="b">
-        <v>0</v>
+      <c r="C109" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="5" t="b">
-        <v>0</v>
+      <c r="C110" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="5" t="b">
-        <v>0</v>
+      <c r="C111" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="5" t="b">
-        <v>0</v>
+      <c r="C114" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C116" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C118" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119" s="5" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="5" t="b">
-        <v>0</v>
+      <c r="C120" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="5" t="b">
-        <v>0</v>
+      <c r="C121" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="5" t="b">
-        <v>0</v>
+      <c r="C122" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" s="5" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C124" s="5" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C125" s="5" t="b">
-        <v>0</v>
+      <c r="C125" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C126" s="5" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C127" s="5" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="5" t="b">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="5" t="b">
-        <v>0</v>
+      <c r="C129" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="5" t="b">
-        <v>0</v>
+      <c r="C130" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="5" t="b">
-        <v>0</v>
+      <c r="C131" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="5" t="b">
-        <v>0</v>
+      <c r="C134" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C138" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C139" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C140" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C141" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C142" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C143" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C146" s="5" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="5" t="b">
-        <v>0</v>
+      <c r="C147" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="5" t="b">
-        <v>0</v>
+      <c r="C148" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="5" t="b">
-        <v>0</v>
+      <c r="C149" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C150" s="5" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C151" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" s="5" t="b">
-        <v>0</v>
+      <c r="C153" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C154" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C155" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="5" t="b">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="5" t="b">
-        <v>0</v>
+      <c r="C159" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="5" t="b">
-        <v>0</v>
+      <c r="C160" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="5" t="b">
-        <v>0</v>
+      <c r="C161" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C162" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C163" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C164" s="5" t="b">
-        <v>0</v>
+      <c r="C164" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C165" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C166" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C167" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C168" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C169" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" s="5" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="5" t="b">
-        <v>0</v>
+      <c r="C171" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="5" t="b">
-        <v>0</v>
+      <c r="C172" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="5" t="b">
-        <v>0</v>
+      <c r="C173" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C174" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="5" t="b">
-        <v>0</v>
+      <c r="C176" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C177" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C178" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C179" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C181" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C182" s="5" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C183" s="5" t="b">
-        <v>0</v>
+      <c r="A183" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="5" t="b">
-        <v>0</v>
+      <c r="C184" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="5" t="b">
-        <v>0</v>
+      <c r="C185" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C186" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C187" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" s="5" t="b">
-        <v>0</v>
+      <c r="C188" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C189" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C190" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C192" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C193" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C194" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C195" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C196" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C197" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C198" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C199" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C200" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C201" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C202" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C203" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C204" s="5" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="5" t="b">
-        <v>0</v>
+      <c r="C205" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="5" t="b">
-        <v>0</v>
+      <c r="C206" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="5" t="b">
-        <v>0</v>
+      <c r="C207" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C208" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C209" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C210" s="5" t="b">
-        <v>0</v>
+      <c r="C210" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C211" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C212" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C213" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C214" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C215" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C216" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C217" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C218" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C219" s="5" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C220" s="5" t="b">
-        <v>0</v>
+      <c r="A220" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="5" t="b">
-        <v>0</v>
+      <c r="C221" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="5" t="b">
-        <v>0</v>
+      <c r="C222" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C223" s="5" t="b">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C224" s="5" t="b">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="5" t="b">
-        <v>0</v>
+      <c r="C225" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="5" t="b">
-        <v>0</v>
+      <c r="C226" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="5" t="b">
-        <v>0</v>
+      <c r="C227" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C228" s="5" t="b">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C229" s="5" t="b">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C230" s="5" t="b">
-        <v>0</v>
+      <c r="C230" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C231" s="5" t="b">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C232" s="5" t="b">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="5" t="b">
-        <v>0</v>
+      <c r="C233" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="5" t="b">
-        <v>0</v>
+      <c r="C234" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="5" t="b">
-        <v>0</v>
+      <c r="C235" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C236" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C237" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C238" s="5" t="b">
-        <v>0</v>
+      <c r="C238" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C239" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C240" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C241" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C242" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C243" s="5" t="b">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="5" t="b">
-        <v>0</v>
+      <c r="C244" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="5" t="b">
-        <v>0</v>
+      <c r="C245" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="5" t="b">
-        <v>0</v>
+      <c r="C246" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C247" s="5" t="b">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C248" s="5" t="b">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C249" s="5" t="b">
-        <v>0</v>
+      <c r="C249" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C250" s="5" t="b">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="5" t="b">
-        <v>0</v>
+      <c r="C251" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="5" t="b">
-        <v>0</v>
+      <c r="C252" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="5" t="b">
-        <v>0</v>
+      <c r="C253" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C254" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C255" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C256" s="5" t="b">
-        <v>0</v>
+      <c r="C256" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C257" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C258" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C259" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C260" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C261" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C262" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C263" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C264" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C265" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C266" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C267" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C268" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C269" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C270" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C271" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C272" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C273" s="5" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C274" s="5" t="b">
-        <v>0</v>
+      <c r="A274" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="5" t="b">
-        <v>0</v>
+      <c r="C275" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="5" t="b">
-        <v>0</v>
+      <c r="C276" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C277" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C278" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C279" s="5" t="b">
-        <v>0</v>
+      <c r="C279" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C280" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C281" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C282" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C283" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C284" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C285" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C286" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C287" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C288" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C289" s="5" t="b">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="5" t="b">
-        <v>0</v>
+      <c r="C290" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="5" t="b">
-        <v>0</v>
+      <c r="C291" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="5" t="b">
-        <v>0</v>
+      <c r="C292" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C293" s="5" t="b">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C294" s="5" t="b">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="5" t="b">
-        <v>0</v>
+      <c r="C295" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="5" t="b">
-        <v>0</v>
+      <c r="C296" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="5" t="b">
-        <v>0</v>
+      <c r="C297" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C298" s="5" t="b">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C299" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C300" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C301" s="5" t="b">
-        <v>0</v>
+      <c r="C301" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C302" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C303" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C304" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C305" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C306" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C307" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C308" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C309" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C310" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C311" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C312" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C313" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C314" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C315" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C316" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C317" s="5" t="b">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C318" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C319" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C320" s="5" t="b">
-        <v>0</v>
+      <c r="C320" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C321" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C322" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C323" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C324" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C325" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C326" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C327" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C328" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C329" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C330" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C331" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C332" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C333" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C334" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C335" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C336" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C337" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C338" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C339" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C340" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C341" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C342" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C343" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C344" s="5" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C345" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C346" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C347" s="5" t="b">
-        <v>0</v>
+      <c r="C347" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C348" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C349" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C350" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C351" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C352" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C353" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C354" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C355" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C356" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C357" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C358" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C359" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C360" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C361" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C362" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C363" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C364" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C365" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C366" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C367" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C368" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C369" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C370" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C371" s="5" t="b">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C372" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C373" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B374" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B374" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C374" s="5" t="b">
-        <v>0</v>
+      <c r="C374" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C375" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C376" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C377" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C378" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C379" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C380" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C381" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C382" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C383" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C384" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C385" s="5" t="b">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="334">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">奏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">恋</t>
@@ -421,13 +418,13 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">爱你</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">爱呀</t>
@@ -1439,7 +1436,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1544,7 +1541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1579,10 +1576,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1714,8 +1707,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,404 +1732,402 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
+      <c r="C2" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C35" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C40" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="C43" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="C44" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C46" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="C47" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="C48" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="9"/>
-    </row>
+      <c r="C50" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -2145,3263 +2136,3263 @@
       <c r="B55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>54</v>
+      <c r="C55" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>54</v>
+      <c r="C56" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>54</v>
+      <c r="C57" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>54</v>
+      <c r="C58" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>54</v>
+      <c r="C59" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>54</v>
+      <c r="C60" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>54</v>
+      <c r="C61" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>54</v>
+      <c r="C62" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>54</v>
+      <c r="C63" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>54</v>
+      <c r="C64" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>54</v>
+      <c r="C65" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C66" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C67" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C68" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C69" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C70" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C71" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C72" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C73" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C74" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C75" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C76" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C77" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C78" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="C79" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C80" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C82" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C83" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C84" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C85" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C86" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C87" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C88" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="B90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="C90" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="5" t="s">
-        <v>54</v>
+      <c r="C91" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="5" t="s">
-        <v>54</v>
+      <c r="C92" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C93" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C94" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C95" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C97" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C98" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C99" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C100" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C101" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C102" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C103" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="5" t="s">
-        <v>54</v>
+      <c r="C104" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="5" t="s">
-        <v>54</v>
+      <c r="C105" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="5" t="s">
-        <v>54</v>
+      <c r="C106" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="C107" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="C108" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="5" t="s">
-        <v>54</v>
+      <c r="C109" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="5" t="s">
-        <v>54</v>
+      <c r="C110" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="5" t="s">
-        <v>54</v>
+      <c r="C111" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C112" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C113" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C114" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C115" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C116" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C117" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C118" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="C119" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="5" t="s">
-        <v>54</v>
+      <c r="C120" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="5" t="s">
-        <v>54</v>
+      <c r="C121" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="5" t="s">
-        <v>54</v>
+      <c r="C122" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C123" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C124" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C125" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C126" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C127" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>54</v>
+        <v>110</v>
+      </c>
+      <c r="C128" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="5" t="s">
-        <v>54</v>
+      <c r="C129" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="5" t="s">
-        <v>54</v>
+      <c r="C130" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="5" t="s">
-        <v>54</v>
+      <c r="C131" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C132" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C133" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C134" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C135" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C136" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C137" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C138" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C139" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C140" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C141" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C142" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C143" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C144" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C145" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>54</v>
+        <v>116</v>
+      </c>
+      <c r="C146" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="5" t="s">
-        <v>54</v>
+      <c r="C147" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="5" t="s">
-        <v>54</v>
+      <c r="C148" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="5" t="s">
-        <v>54</v>
+      <c r="C149" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>54</v>
+        <v>131</v>
+      </c>
+      <c r="C150" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C151" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C152" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C153" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C154" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C155" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C156" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C157" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="C158" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="5" t="s">
-        <v>54</v>
+      <c r="C159" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="5" t="s">
-        <v>54</v>
+      <c r="C160" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="5" t="s">
-        <v>54</v>
+      <c r="C161" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C162" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C163" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C164" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C165" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C166" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C167" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C168" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C169" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="C170" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="5" t="s">
-        <v>54</v>
+      <c r="C171" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="5" t="s">
-        <v>54</v>
+      <c r="C172" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="5" t="s">
-        <v>54</v>
+      <c r="C173" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C174" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C175" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C176" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C177" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C178" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C179" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C180" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
+      </c>
+      <c r="C181" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>54</v>
+      <c r="B183" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C183" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="5" t="s">
-        <v>54</v>
+      <c r="C184" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="5" t="s">
-        <v>54</v>
+      <c r="C185" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C186" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C187" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C188" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C189" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C190" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C191" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C192" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C193" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C194" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C195" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C196" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C197" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C198" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C199" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C200" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C201" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C202" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C203" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="C204" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="5" t="s">
-        <v>54</v>
+      <c r="C205" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="5" t="s">
-        <v>54</v>
+      <c r="C206" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="5" t="s">
-        <v>54</v>
+      <c r="C207" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C208" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C209" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C210" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C211" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C212" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C213" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C214" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C215" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C216" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C217" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="C218" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C219" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>54</v>
+      <c r="B220" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C220" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="5" t="s">
-        <v>54</v>
+      <c r="C221" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="5" t="s">
-        <v>54</v>
+      <c r="C222" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="C223" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="C224" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="5" t="s">
-        <v>54</v>
+      <c r="C225" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="5" t="s">
-        <v>54</v>
+      <c r="C226" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="5" t="s">
-        <v>54</v>
+      <c r="C227" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="C228" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="C229" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="C230" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="C231" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
+      </c>
+      <c r="C232" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="5" t="s">
-        <v>54</v>
+      <c r="C233" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="5" t="s">
-        <v>54</v>
+      <c r="C234" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="5" t="s">
-        <v>54</v>
+      <c r="C235" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C236" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C237" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C238" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C239" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C240" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C241" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C242" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>54</v>
+        <v>198</v>
+      </c>
+      <c r="C243" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="5" t="s">
-        <v>54</v>
+      <c r="C244" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="5" t="s">
-        <v>54</v>
+      <c r="C245" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="5" t="s">
-        <v>54</v>
+      <c r="C246" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>54</v>
+        <v>206</v>
+      </c>
+      <c r="C247" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>54</v>
+        <v>206</v>
+      </c>
+      <c r="C248" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>54</v>
+        <v>206</v>
+      </c>
+      <c r="C249" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>54</v>
+        <v>206</v>
+      </c>
+      <c r="C250" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="5" t="s">
-        <v>54</v>
+      <c r="C251" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="5" t="s">
-        <v>54</v>
+      <c r="C252" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="5" t="s">
-        <v>54</v>
+      <c r="C253" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C254" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C255" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C256" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C257" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C258" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C259" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C260" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C261" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C262" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C263" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C264" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C265" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C266" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C267" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C268" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C269" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C270" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C271" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="C272" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C273" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>54</v>
+      <c r="B274" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C274" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="5" t="s">
-        <v>54</v>
+      <c r="C275" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="5" t="s">
-        <v>54</v>
+      <c r="C276" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C277" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C278" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C279" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C280" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C281" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C282" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C283" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C284" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C285" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C286" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C287" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C288" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>54</v>
+        <v>231</v>
+      </c>
+      <c r="C289" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="5" t="s">
-        <v>54</v>
+      <c r="C290" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="5" t="s">
-        <v>54</v>
+      <c r="C291" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="5" t="s">
-        <v>54</v>
+      <c r="C292" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>54</v>
+        <v>244</v>
+      </c>
+      <c r="C293" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>54</v>
+        <v>244</v>
+      </c>
+      <c r="C294" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="5" t="s">
-        <v>54</v>
+      <c r="C295" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="5" t="s">
-        <v>54</v>
+      <c r="C296" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="5" t="s">
-        <v>54</v>
+      <c r="C297" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>54</v>
+        <v>246</v>
+      </c>
+      <c r="C298" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C299" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C300" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C301" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C302" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C303" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C304" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C305" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C306" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C307" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C308" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C309" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C310" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C311" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C312" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C313" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C314" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C315" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C316" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>54</v>
+        <v>247</v>
+      </c>
+      <c r="C317" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C318" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C319" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C320" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C321" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C322" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C323" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C324" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C325" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C326" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C327" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C328" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C329" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C330" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C331" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C332" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C333" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C334" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C335" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C336" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C337" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C338" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C339" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C340" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C341" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C342" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C343" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>54</v>
+        <v>266</v>
+      </c>
+      <c r="C344" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C345" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C346" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C347" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C348" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C349" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C350" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C351" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C352" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C353" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C354" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C355" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C356" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C357" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C358" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C359" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C360" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C361" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C362" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C363" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C364" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C365" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C366" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C367" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C368" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C369" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C370" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C371" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C372" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C373" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C374" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C375" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C376" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C377" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C378" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C379" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C380" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C381" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C382" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C383" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C384" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>54</v>
+        <v>320</v>
+      </c>
+      <c r="C385" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="335">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">奏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">恋</t>
@@ -1707,8 +1710,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1732,392 +1735,588 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="b">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="b">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="b">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="b">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="b">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="b">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="b">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="b">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="b">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="b">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="b">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="b">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="b">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="b">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="b">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="b">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="b">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="b">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="b">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="b">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="b">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5" t="b">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="b">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="b">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5" t="b">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="b">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="b">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="b">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="b">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="b">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="b">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="b">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="b">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="b">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="b">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5" t="b">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="b">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="b">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="b">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="5" t="b">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="5" t="b">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="5" t="b">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="5" t="b">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="5" t="b">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="5" t="b">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5" t="b">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="5" t="b">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2126,3272 +2325,3603 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="5" t="b">
+      <c r="C55" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="5" t="b">
+        <v>53</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="5" t="b">
+      <c r="C67" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="5" t="b">
+        <v>65</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="5" t="b">
+      <c r="C81" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="5" t="b">
+        <v>79</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="5" t="b">
+      <c r="C91" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="5" t="b">
+      <c r="C92" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" s="5" t="b">
+      <c r="C94" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="5" t="b">
+        <v>90</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="5" t="b">
+      <c r="C104" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="5" t="b">
+      <c r="C105" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="5" t="b">
+      <c r="C106" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="5" t="b">
+        <v>101</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="5" t="b">
+      <c r="C108" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="5" t="b">
+      <c r="C109" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="5" t="b">
+      <c r="C110" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="5" t="b">
+      <c r="C111" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="5" t="b">
+      <c r="C113" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C119" s="5" t="b">
+        <v>103</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="5" t="b">
+      <c r="C120" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="5" t="b">
+      <c r="C121" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="5" t="b">
+      <c r="C122" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="5" t="b">
+      <c r="C124" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="5" t="b">
+      <c r="C129" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="5" t="b">
+      <c r="C130" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="5" t="b">
+      <c r="C131" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" s="5" t="b">
+      <c r="C133" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C134" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C135" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C136" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C141" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C142" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C143" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C144" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="5" t="b">
+      <c r="C147" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="5" t="b">
+      <c r="C148" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="5" t="b">
+      <c r="C149" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C150" s="5" t="b">
+        <v>132</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C151" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C152" s="5" t="b">
+      <c r="C152" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C153" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C154" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C155" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C156" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C157" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C158" s="5" t="b">
+        <v>133</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="5" t="b">
+      <c r="C159" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="5" t="b">
+      <c r="C160" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="5" t="b">
+      <c r="C161" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C162" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C163" s="5" t="b">
+      <c r="C163" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C164" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C165" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C166" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C167" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C168" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C169" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C170" s="5" t="b">
+        <v>141</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="5" t="b">
+      <c r="C171" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="5" t="b">
+      <c r="C172" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="5" t="b">
+      <c r="C173" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C175" s="5" t="b">
+      <c r="C175" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C176" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C178" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C179" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C180" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C181" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C182" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C183" s="5" t="b">
+        <v>150</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="5" t="b">
+      <c r="C184" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="5" t="b">
+      <c r="C185" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C186" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C187" s="5" t="b">
+      <c r="C187" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C188" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C189" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C190" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C191" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C192" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C193" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C195" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C196" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C197" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C198" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C199" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C200" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C201" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C202" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C203" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C204" s="5" t="b">
+        <v>160</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="5" t="b">
+      <c r="C205" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="5" t="b">
+      <c r="C206" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="5" t="b">
+      <c r="C207" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C208" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C209" s="5" t="b">
+      <c r="C209" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C210" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C211" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C212" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C213" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C214" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C216" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C217" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C218" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C219" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C220" s="5" t="b">
+        <v>179</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="5" t="b">
+      <c r="C221" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="5" t="b">
+      <c r="C222" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C223" s="5" t="b">
+        <v>192</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C224" s="5" t="b">
+      <c r="C224" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="5" t="b">
+      <c r="C225" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="5" t="b">
+      <c r="C226" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="5" t="b">
+      <c r="C227" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C228" s="5" t="b">
+        <v>194</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C229" s="5" t="b">
+      <c r="C229" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C230" s="5" t="b">
+        <v>194</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C231" s="5" t="b">
+        <v>194</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C232" s="5" t="b">
+        <v>194</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="5" t="b">
+      <c r="C233" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="5" t="b">
+      <c r="C234" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="5" t="b">
+      <c r="C235" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C236" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C237" s="5" t="b">
+      <c r="C237" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C238" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C239" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C240" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C241" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C242" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C243" s="5" t="b">
+        <v>199</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="5" t="b">
+      <c r="C244" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="5" t="b">
+      <c r="C245" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="5" t="b">
+      <c r="C246" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C247" s="5" t="b">
+        <v>207</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C248" s="5" t="b">
+      <c r="C248" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C249" s="5" t="b">
+        <v>207</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C250" s="5" t="b">
+        <v>207</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="5" t="b">
+      <c r="C251" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="5" t="b">
+      <c r="C252" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="5" t="b">
+      <c r="C253" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C254" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C255" s="5" t="b">
+      <c r="C255" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C256" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C257" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C258" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C259" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C260" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C261" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C262" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C263" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C264" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C265" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C266" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C267" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C268" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C269" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C270" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C271" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C272" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C273" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C274" s="5" t="b">
+        <v>211</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="5" t="b">
+      <c r="C275" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="5" t="b">
+      <c r="C276" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C277" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C278" s="5" t="b">
+      <c r="C278" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C279" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C280" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C281" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C282" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C283" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C284" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C285" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C286" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C287" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C288" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C289" s="5" t="b">
+        <v>232</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="5" t="b">
+      <c r="C290" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="5" t="b">
+      <c r="C291" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="5" t="b">
+      <c r="C292" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C293" s="5" t="b">
+        <v>245</v>
+      </c>
+      <c r="C293" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C294" s="5" t="b">
+      <c r="C294" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="5" t="b">
+      <c r="C295" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="5" t="b">
+      <c r="C296" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="5" t="b">
+      <c r="C297" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C298" s="5" t="b">
+        <v>247</v>
+      </c>
+      <c r="C298" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C299" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C299" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C300" s="5" t="b">
+      <c r="C300" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C301" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C301" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C302" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C302" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C303" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C303" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C304" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C304" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C305" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C305" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C306" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C306" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C307" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C307" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C308" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C308" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C309" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C309" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C310" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C310" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C311" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C311" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C312" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C312" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C313" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C313" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C314" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C314" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C315" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C315" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C316" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C316" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C317" s="5" t="b">
+        <v>248</v>
+      </c>
+      <c r="C317" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C318" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C318" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C319" s="5" t="b">
+      <c r="C319" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C320" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C320" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C321" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C321" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C322" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C322" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C323" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C323" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C324" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C324" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C325" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C325" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C326" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C326" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C327" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C327" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C328" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C328" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C329" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C329" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C330" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C330" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C331" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C331" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C332" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C332" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C333" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C333" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C334" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C334" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C335" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C335" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C336" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C336" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C337" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C337" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C338" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C338" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C339" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C339" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C340" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C340" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C341" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C341" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C342" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C342" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C343" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C343" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C344" s="5" t="b">
+        <v>267</v>
+      </c>
+      <c r="C344" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C345" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C345" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C346" s="5" t="b">
+      <c r="C346" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C347" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C347" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C348" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C348" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C349" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C349" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C350" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C350" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C351" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C351" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C352" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C352" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C353" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C353" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C354" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C354" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C355" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C355" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C356" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C356" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C357" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C357" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C358" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C358" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C359" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C359" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C360" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C360" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C361" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C361" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C362" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C362" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C363" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C363" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C364" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C364" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C365" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C365" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C366" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C366" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C367" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C367" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C368" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C368" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C369" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C369" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C370" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C370" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C371" s="5" t="b">
+        <v>294</v>
+      </c>
+      <c r="C371" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C372" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C372" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C373" s="5" t="b">
+      <c r="C373" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C374" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C374" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C375" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C375" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C376" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C376" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C377" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C377" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C378" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C378" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C379" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C379" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C380" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C380" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C381" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C381" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C382" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C382" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C383" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C383" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C384" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C384" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C385" s="5" t="b">
+        <v>321</v>
+      </c>
+      <c r="C385" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="335">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">奏</t>
   </si>
   <si>
-    <t xml:space="preserve">w</t>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">恋</t>
@@ -1151,9 +1154,6 @@
   </si>
   <si>
     <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">晚风</t>
@@ -1474,7 +1474,6 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="10"/>
       <name val="等线"/>
       <family val="0"/>
@@ -1482,6 +1481,7 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
       <name val="等线"/>
       <family val="0"/>
@@ -1554,18 +1554,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1581,8 +1581,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1710,24 +1710,25 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1735,587 +1736,539 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2325,2579 +2278,2579 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C58" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C59" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C60" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C61" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C62" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C63" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C64" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C65" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C66" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C70" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C71" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C72" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C73" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C74" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C75" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C76" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C77" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C78" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C79" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C80" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C83" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C84" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C85" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C86" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C87" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C88" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C89" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>89</v>
+      <c r="A90" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C90" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C95" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C96" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C97" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C98" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C99" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C100" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C101" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C102" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C103" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="5" t="n">
+      <c r="C104" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="5" t="n">
+      <c r="C105" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="C107" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="5" t="n">
+      <c r="C111" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C112" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C114" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C115" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C116" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C117" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C118" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C119" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="5" t="n">
+      <c r="C120" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="5" t="n">
+      <c r="C121" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="5" t="n">
+      <c r="C122" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C123" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C125" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C126" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C126" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C127" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C128" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C128" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="5" t="n">
+      <c r="C129" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="5" t="n">
+      <c r="C130" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="5" t="n">
+      <c r="C131" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C132" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="5" t="n">
+      <c r="C133" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C134" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C135" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C135" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C136" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C137" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C138" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C139" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C140" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C140" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C141" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C142" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C142" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C143" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C143" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C144" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C144" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C145" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C145" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C146" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="5" t="n">
+      <c r="C147" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="5" t="n">
+      <c r="C148" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="5" t="n">
+      <c r="C149" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C150" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="C150" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C151" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="5" t="n">
+      <c r="C152" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C153" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C153" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C154" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C154" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C155" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C155" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C156" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C157" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C158" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="C158" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="5" t="n">
+      <c r="C159" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="5" t="n">
+      <c r="C160" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="5" t="n">
+      <c r="C161" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C162" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="5" t="n">
+      <c r="C163" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C164" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C165" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C166" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C167" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C168" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C168" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C169" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C170" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="5" t="n">
+      <c r="C171" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="5" t="n">
+      <c r="C172" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="5" t="n">
+      <c r="C173" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C174" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C174" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" s="5" t="n">
+      <c r="C175" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C176" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C176" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C177" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C177" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C178" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C179" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C179" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C180" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C180" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C181" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C181" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C182" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C183" s="5" t="n">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C183" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="5" t="n">
+      <c r="C184" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="5" t="n">
+      <c r="C185" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C186" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C186" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C187" s="5" t="n">
+      <c r="C187" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C188" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C188" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C189" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C189" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C190" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C190" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C191" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C191" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C192" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C192" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C193" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C193" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C194" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C194" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C195" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C196" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C196" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C197" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C197" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C198" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C198" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C199" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C199" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C200" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C200" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C201" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C201" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C202" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C202" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C203" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C203" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C204" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C204" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="5" t="n">
+      <c r="C205" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="5" t="n">
+      <c r="C206" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="5" t="n">
+      <c r="C207" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C208" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C209" s="5" t="n">
+      <c r="C209" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C210" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C210" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C211" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C212" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C212" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C213" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C213" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C214" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C214" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C215" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C215" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C216" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C216" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C217" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C217" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C218" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C218" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C219" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C219" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C220" s="5" t="n">
+      <c r="A220" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="5" t="n">
+      <c r="C221" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="5" t="n">
+      <c r="C222" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C223" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="C223" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C224" s="5" t="n">
+      <c r="C224" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="5" t="n">
+      <c r="C225" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="5" t="n">
+      <c r="C226" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="5" t="n">
+      <c r="C227" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C228" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C228" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C229" s="5" t="n">
+      <c r="C229" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C230" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C230" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C231" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C231" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C232" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C232" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="5" t="n">
+      <c r="C233" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="5" t="n">
+      <c r="C234" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="5" t="n">
+      <c r="C235" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C236" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C236" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C237" s="5" t="n">
+      <c r="C237" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C238" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C238" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C239" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C239" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C240" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C240" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C241" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C241" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C242" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C242" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C243" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C243" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="5" t="n">
+      <c r="C244" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="5" t="n">
+      <c r="C245" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="5" t="n">
+      <c r="C246" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C247" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="C247" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C248" s="5" t="n">
+      <c r="C248" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C249" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="C249" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C250" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="C250" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="5" t="n">
+      <c r="C251" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="5" t="n">
+      <c r="C252" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="5" t="n">
+      <c r="C253" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C254" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C254" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C255" s="5" t="n">
+      <c r="C255" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C256" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C256" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C257" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C257" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C258" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C258" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C259" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C259" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C260" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C260" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C261" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C261" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C262" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C262" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C263" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C263" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C264" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C264" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C265" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C265" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C266" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C266" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C267" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C267" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C268" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C268" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C269" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C269" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C270" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C270" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C271" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C271" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C272" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C272" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C273" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="C273" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C274" s="5" t="n">
+      <c r="A274" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C274" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="5" t="n">
+      <c r="C275" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="5" t="n">
+      <c r="C276" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C277" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C277" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C278" s="5" t="n">
+      <c r="C278" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C279" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C279" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C280" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C280" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C281" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C281" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C282" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C282" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C283" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C283" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C284" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C284" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C285" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C285" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C286" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C286" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C287" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C287" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C288" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C288" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C289" s="5" t="n">
+        <v>233</v>
+      </c>
+      <c r="C289" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="5" t="n">
+      <c r="C290" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="5" t="n">
+      <c r="C291" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="5" t="n">
+      <c r="C292" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C293" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="C293" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C294" s="5" t="n">
+      <c r="C294" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="5" t="n">
+      <c r="C295" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="5" t="n">
+      <c r="C296" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="5" t="n">
+      <c r="C297" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C298" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="C298" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C299" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C299" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4907,9 +4860,9 @@
         <v>249</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C300" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C300" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4919,9 +4872,9 @@
         <v>250</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C301" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C301" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4931,9 +4884,9 @@
         <v>251</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C302" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4943,9 +4896,9 @@
         <v>252</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C303" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C303" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4955,9 +4908,9 @@
         <v>253</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C304" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C304" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4967,9 +4920,9 @@
         <v>254</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C305" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C305" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4979,9 +4932,9 @@
         <v>255</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C306" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C306" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4991,9 +4944,9 @@
         <v>256</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C307" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5003,9 +4956,9 @@
         <v>257</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C308" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C308" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5015,9 +4968,9 @@
         <v>258</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C309" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C309" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5027,9 +4980,9 @@
         <v>259</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C310" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5039,9 +4992,9 @@
         <v>260</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C311" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C311" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5051,9 +5004,9 @@
         <v>261</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C312" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5063,9 +5016,9 @@
         <v>262</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C313" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C313" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5075,9 +5028,9 @@
         <v>263</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C314" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C314" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5087,9 +5040,9 @@
         <v>264</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C315" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C315" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5099,9 +5052,9 @@
         <v>265</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C316" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C316" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5111,9 +5064,9 @@
         <v>266</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C317" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5122,7 +5075,7 @@
       <c r="A318" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C318" s="5" t="n">
+      <c r="C318" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5134,7 +5087,7 @@
       <c r="B319" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C319" s="5" t="n">
+      <c r="C319" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5146,7 +5099,7 @@
       <c r="B320" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C320" s="5" t="n">
+      <c r="C320" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5158,7 +5111,7 @@
       <c r="B321" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C321" s="5" t="n">
+      <c r="C321" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5170,7 +5123,7 @@
       <c r="B322" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C322" s="5" t="n">
+      <c r="C322" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5182,7 +5135,7 @@
       <c r="B323" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C323" s="5" t="n">
+      <c r="C323" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5194,7 +5147,7 @@
       <c r="B324" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C324" s="5" t="n">
+      <c r="C324" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5206,7 +5159,7 @@
       <c r="B325" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C325" s="5" t="n">
+      <c r="C325" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5218,7 +5171,7 @@
       <c r="B326" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C326" s="5" t="n">
+      <c r="C326" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5230,7 +5183,7 @@
       <c r="B327" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C327" s="5" t="n">
+      <c r="C327" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5242,7 +5195,7 @@
       <c r="B328" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C328" s="5" t="n">
+      <c r="C328" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5254,7 +5207,7 @@
       <c r="B329" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C329" s="5" t="n">
+      <c r="C329" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5266,7 +5219,7 @@
       <c r="B330" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C330" s="5" t="n">
+      <c r="C330" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5278,7 +5231,7 @@
       <c r="B331" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C331" s="5" t="n">
+      <c r="C331" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5290,7 +5243,7 @@
       <c r="B332" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C332" s="5" t="n">
+      <c r="C332" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5302,7 +5255,7 @@
       <c r="B333" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C333" s="5" t="n">
+      <c r="C333" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5314,7 +5267,7 @@
       <c r="B334" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C334" s="5" t="n">
+      <c r="C334" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5326,7 +5279,7 @@
       <c r="B335" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C335" s="5" t="n">
+      <c r="C335" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5338,7 +5291,7 @@
       <c r="B336" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C336" s="5" t="n">
+      <c r="C336" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5350,7 +5303,7 @@
       <c r="B337" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C337" s="5" t="n">
+      <c r="C337" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5362,7 +5315,7 @@
       <c r="B338" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C338" s="5" t="n">
+      <c r="C338" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5374,7 +5327,7 @@
       <c r="B339" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C339" s="5" t="n">
+      <c r="C339" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5386,7 +5339,7 @@
       <c r="B340" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C340" s="5" t="n">
+      <c r="C340" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5398,7 +5351,7 @@
       <c r="B341" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C341" s="5" t="n">
+      <c r="C341" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5410,7 +5363,7 @@
       <c r="B342" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C342" s="5" t="n">
+      <c r="C342" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5422,7 +5375,7 @@
       <c r="B343" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C343" s="5" t="n">
+      <c r="C343" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5434,7 +5387,7 @@
       <c r="B344" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C344" s="5" t="n">
+      <c r="C344" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5443,7 +5396,7 @@
       <c r="A345" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C345" s="5" t="n">
+      <c r="C345" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5455,7 +5408,7 @@
       <c r="B346" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C346" s="5" t="n">
+      <c r="C346" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5467,7 +5420,7 @@
       <c r="B347" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C347" s="5" t="n">
+      <c r="C347" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5479,7 +5432,7 @@
       <c r="B348" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C348" s="5" t="n">
+      <c r="C348" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5491,7 +5444,7 @@
       <c r="B349" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C349" s="5" t="n">
+      <c r="C349" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5503,7 +5456,7 @@
       <c r="B350" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C350" s="5" t="n">
+      <c r="C350" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5515,7 +5468,7 @@
       <c r="B351" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C351" s="5" t="n">
+      <c r="C351" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5527,7 +5480,7 @@
       <c r="B352" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C352" s="5" t="n">
+      <c r="C352" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5539,7 +5492,7 @@
       <c r="B353" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C353" s="5" t="n">
+      <c r="C353" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5551,7 +5504,7 @@
       <c r="B354" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C354" s="5" t="n">
+      <c r="C354" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5563,7 +5516,7 @@
       <c r="B355" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C355" s="5" t="n">
+      <c r="C355" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5575,7 +5528,7 @@
       <c r="B356" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C356" s="5" t="n">
+      <c r="C356" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5587,7 +5540,7 @@
       <c r="B357" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C357" s="5" t="n">
+      <c r="C357" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5599,7 +5552,7 @@
       <c r="B358" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C358" s="5" t="n">
+      <c r="C358" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5611,7 +5564,7 @@
       <c r="B359" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C359" s="5" t="n">
+      <c r="C359" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5623,7 +5576,7 @@
       <c r="B360" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C360" s="5" t="n">
+      <c r="C360" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5635,7 +5588,7 @@
       <c r="B361" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C361" s="5" t="n">
+      <c r="C361" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5647,7 +5600,7 @@
       <c r="B362" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C362" s="5" t="n">
+      <c r="C362" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5659,7 +5612,7 @@
       <c r="B363" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C363" s="5" t="n">
+      <c r="C363" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5671,7 +5624,7 @@
       <c r="B364" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C364" s="5" t="n">
+      <c r="C364" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5683,7 +5636,7 @@
       <c r="B365" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C365" s="5" t="n">
+      <c r="C365" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5695,7 +5648,7 @@
       <c r="B366" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C366" s="5" t="n">
+      <c r="C366" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5707,7 +5660,7 @@
       <c r="B367" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C367" s="5" t="n">
+      <c r="C367" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5719,7 +5672,7 @@
       <c r="B368" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C368" s="5" t="n">
+      <c r="C368" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5731,7 +5684,7 @@
       <c r="B369" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C369" s="5" t="n">
+      <c r="C369" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5743,7 +5696,7 @@
       <c r="B370" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C370" s="5" t="n">
+      <c r="C370" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5755,7 +5708,7 @@
       <c r="B371" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C371" s="5" t="n">
+      <c r="C371" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5764,7 +5717,7 @@
       <c r="A372" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C372" s="5" t="n">
+      <c r="C372" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5776,7 +5729,7 @@
       <c r="B373" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C373" s="5" t="n">
+      <c r="C373" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5788,7 +5741,7 @@
       <c r="B374" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C374" s="5" t="n">
+      <c r="C374" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5800,7 +5753,7 @@
       <c r="B375" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C375" s="5" t="n">
+      <c r="C375" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5812,7 +5765,7 @@
       <c r="B376" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C376" s="5" t="n">
+      <c r="C376" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5824,7 +5777,7 @@
       <c r="B377" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C377" s="5" t="n">
+      <c r="C377" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5836,7 +5789,7 @@
       <c r="B378" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C378" s="5" t="n">
+      <c r="C378" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5848,7 +5801,7 @@
       <c r="B379" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C379" s="5" t="n">
+      <c r="C379" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5860,7 +5813,7 @@
       <c r="B380" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C380" s="5" t="n">
+      <c r="C380" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5872,7 +5825,7 @@
       <c r="B381" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C381" s="5" t="n">
+      <c r="C381" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5884,7 +5837,7 @@
       <c r="B382" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C382" s="5" t="n">
+      <c r="C382" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5896,7 +5849,7 @@
       <c r="B383" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C383" s="5" t="n">
+      <c r="C383" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5908,7 +5861,7 @@
       <c r="B384" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C384" s="5" t="n">
+      <c r="C384" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5920,7 +5873,7 @@
       <c r="B385" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C385" s="5" t="n">
+      <c r="C385" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/唐茶歌单.xlsx
+++ b/唐茶歌单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="334">
   <si>
     <t xml:space="preserve">歌名</t>
   </si>
@@ -422,9 +422,6 @@
       </rPr>
       <t xml:space="preserve">（送给你的爱之歌）</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -1710,8 +1707,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2262,31 +2259,22 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2295,10 +2283,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2307,10 +2295,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2319,10 +2307,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2331,10 +2319,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2343,10 +2331,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2355,10 +2343,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2367,10 +2355,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2379,10 +2367,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2391,10 +2379,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2403,10 +2391,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2415,7 +2403,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2424,10 +2412,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2436,10 +2424,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2448,10 +2436,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2460,10 +2448,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2472,10 +2460,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2484,10 +2472,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2496,10 +2484,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2508,10 +2496,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2520,10 +2508,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2532,10 +2520,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2544,10 +2532,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2556,10 +2544,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2568,10 +2556,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2580,7 +2568,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2589,10 +2577,10 @@
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2601,10 +2589,10 @@
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2613,10 +2601,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2625,10 +2613,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2637,10 +2625,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2649,10 +2637,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2661,10 +2649,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2673,10 +2661,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2685,10 +2673,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2697,10 +2685,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2721,7 +2709,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2730,10 +2718,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2742,10 +2730,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2754,10 +2742,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2766,10 +2754,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2778,10 +2766,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2790,10 +2778,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2802,10 +2790,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2814,10 +2802,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2826,10 +2814,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2838,10 +2826,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2868,7 +2856,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2877,10 +2865,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2907,7 +2895,7 @@
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2916,10 +2904,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2928,10 +2916,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2940,10 +2928,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2952,10 +2940,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2964,10 +2952,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2976,10 +2964,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -2988,10 +2976,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C119" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3018,7 +3006,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3027,10 +3015,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3039,10 +3027,10 @@
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3051,10 +3039,10 @@
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3063,10 +3051,10 @@
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C127" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3075,10 +3063,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C128" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3105,7 +3093,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3114,10 +3102,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3126,10 +3114,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3138,10 +3126,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3150,10 +3138,10 @@
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C136" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3162,10 +3150,10 @@
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C137" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3174,10 +3162,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3186,10 +3174,10 @@
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C139" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3198,10 +3186,10 @@
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C140" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3210,10 +3198,10 @@
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C141" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3222,10 +3210,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C142" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3234,10 +3222,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C143" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3246,10 +3234,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3258,10 +3246,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3270,10 +3258,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C146" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3300,7 +3288,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3309,7 +3297,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3318,10 +3306,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C152" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3330,10 +3318,10 @@
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3342,10 +3330,10 @@
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3354,10 +3342,10 @@
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3366,10 +3354,10 @@
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C156" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3378,10 +3366,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C157" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3390,10 +3378,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C158" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3420,7 +3408,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C162" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3429,10 +3417,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C163" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3441,10 +3429,10 @@
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C164" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3453,10 +3441,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C165" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3465,10 +3453,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C166" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3477,10 +3465,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C167" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3489,10 +3477,10 @@
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3501,10 +3489,10 @@
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C169" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3513,10 +3501,10 @@
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C170" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3543,7 +3531,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C174" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3552,10 +3540,10 @@
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C175" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3564,10 +3552,10 @@
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C176" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3576,10 +3564,10 @@
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C177" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3588,10 +3576,10 @@
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C178" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3600,10 +3588,10 @@
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C179" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3612,10 +3600,10 @@
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C180" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3624,10 +3612,10 @@
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C181" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3636,10 +3624,10 @@
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C182" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3648,10 +3636,10 @@
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C183" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3672,7 +3660,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C186" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3681,10 +3669,10 @@
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C187" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3693,10 +3681,10 @@
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C188" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3705,10 +3693,10 @@
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C189" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3717,10 +3705,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C190" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3729,10 +3717,10 @@
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C191" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3741,10 +3729,10 @@
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C192" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3753,10 +3741,10 @@
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C193" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3765,10 +3753,10 @@
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C194" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3777,10 +3765,10 @@
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C195" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3789,10 +3777,10 @@
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C196" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3801,10 +3789,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C197" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3813,10 +3801,10 @@
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C198" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3825,10 +3813,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C199" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3837,10 +3825,10 @@
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C200" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3849,10 +3837,10 @@
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C201" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3861,10 +3849,10 @@
     </row>
     <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C202" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3873,10 +3861,10 @@
     </row>
     <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C203" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3885,10 +3873,10 @@
     </row>
     <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C204" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3915,7 +3903,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C208" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3924,10 +3912,10 @@
     </row>
     <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C209" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3936,10 +3924,10 @@
     </row>
     <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C210" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3948,10 +3936,10 @@
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C211" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3960,10 +3948,10 @@
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C212" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3972,10 +3960,10 @@
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C213" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3984,10 +3972,10 @@
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C214" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -3996,10 +3984,10 @@
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C215" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4008,10 +3996,10 @@
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C216" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4020,10 +4008,10 @@
     </row>
     <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C217" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4032,10 +4020,10 @@
     </row>
     <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C218" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4044,10 +4032,10 @@
     </row>
     <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C219" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4056,10 +4044,10 @@
     </row>
     <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C220" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4080,7 +4068,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C223" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4089,10 +4077,10 @@
     </row>
     <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C224" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4119,7 +4107,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C228" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4128,10 +4116,10 @@
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C229" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4140,10 +4128,10 @@
     </row>
     <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C230" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4152,10 +4140,10 @@
     </row>
     <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C231" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4164,10 +4152,10 @@
     </row>
     <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C232" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4194,7 +4182,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C236" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4203,10 +4191,10 @@
     </row>
     <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C237" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4215,10 +4203,10 @@
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C238" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4227,10 +4215,10 @@
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C239" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4239,10 +4227,10 @@
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C240" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4251,10 +4239,10 @@
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C241" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4263,10 +4251,10 @@
     </row>
     <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C242" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4275,10 +4263,10 @@
     </row>
     <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C243" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4305,7 +4293,7 @@
     </row>
     <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C247" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4314,10 +4302,10 @@
     </row>
     <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C248" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4326,10 +4314,10 @@
     </row>
     <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C249" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4338,10 +4326,10 @@
     </row>
     <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C250" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4368,7 +4356,7 @@
     </row>
     <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C254" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4377,10 +4365,10 @@
     </row>
     <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C255" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4389,10 +4377,10 @@
     </row>
     <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C256" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4401,10 +4389,10 @@
     </row>
     <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C257" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4413,10 +4401,10 @@
     </row>
     <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C258" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4425,10 +4413,10 @@
     </row>
     <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C259" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4437,10 +4425,10 @@
     </row>
     <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C260" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4449,10 +4437,10 @@
     </row>
     <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C261" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4461,10 +4449,10 @@
     </row>
     <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C262" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4473,10 +4461,10 @@
     </row>
     <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C263" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4485,10 +4473,10 @@
     </row>
     <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C264" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4497,10 +4485,10 @@
     </row>
     <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C265" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4509,10 +4497,10 @@
     </row>
     <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C266" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4521,10 +4509,10 @@
     </row>
     <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C267" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4533,10 +4521,10 @@
     </row>
     <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C268" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4545,10 +4533,10 @@
     </row>
     <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C269" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4557,10 +4545,10 @@
     </row>
     <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C270" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4569,10 +4557,10 @@
     </row>
     <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C271" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4581,10 +4569,10 @@
     </row>
     <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C272" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4593,10 +4581,10 @@
     </row>
     <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C273" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4605,10 +4593,10 @@
     </row>
     <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C274" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4629,7 +4617,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C277" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4638,10 +4626,10 @@
     </row>
     <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C278" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4650,10 +4638,10 @@
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C279" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4662,10 +4650,10 @@
     </row>
     <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C280" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4674,10 +4662,10 @@
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C281" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4686,10 +4674,10 @@
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C282" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4698,10 +4686,10 @@
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C283" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4710,10 +4698,10 @@
     </row>
     <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C284" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4722,10 +4710,10 @@
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C285" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4734,10 +4722,10 @@
     </row>
     <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C286" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4746,10 +4734,10 @@
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C287" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4758,10 +4746,10 @@
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C288" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4770,10 +4758,10 @@
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C289" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4800,7 +4788,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C293" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4809,10 +4797,10 @@
     </row>
     <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C294" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4839,7 +4827,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C298" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -4857,7 +4845,7 @@
     </row>
     <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>4</v>
@@ -4869,7 +4857,7 @@
     </row>
     <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>4</v>
@@ -4881,7 +4869,7 @@
     </row>
     <row r="302" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>4</v>
@@ -4893,7 +4881,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>4</v>
@@ -4905,7 +4893,7 @@
     </row>
     <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>4</v>
@@ -4917,7 +4905,7 @@
     </row>
     <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>4</v>
@@ -4929,7 +4917,7 @@
     </row>
     <row r="306" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>4</v>
@@ -4941,7 +4929,7 @@
     </row>
     <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>4</v>
@@ -4953,7 +4941,7 @@
     </row>
     <row r="308" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>4</v>
@@ -4965,7 +4953,7 @@
     </row>
     <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>4</v>
@@ -4977,7 +4965,7 @@
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>4</v>
@@ -4989,7 +4977,7 @@
     </row>
     <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>4</v>
@@ -5001,7 +4989,7 @@
     </row>
     <row r="312" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>4</v>
@@ -5013,7 +5001,7 @@
     </row>
     <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>4</v>
@@ -5025,7 +5013,7 @@
     </row>
     <row r="314" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>4</v>
@@ -5037,7 +5025,7 @@
     </row>
     <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>4</v>
@@ -5049,7 +5037,7 @@
     </row>
     <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>4</v>
@@ -5061,7 +5049,7 @@
     </row>
     <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>4</v>
@@ -5073,7 +5061,7 @@
     </row>
     <row r="318" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C318" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5082,10 +5070,10 @@
     </row>
     <row r="319" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C319" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5094,10 +5082,10 @@
     </row>
     <row r="320" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C320" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5106,10 +5094,10 @@
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C321" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5118,10 +5106,10 @@
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C322" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5130,10 +5118,10 @@
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C323" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5142,10 +5130,10 @@
     </row>
     <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C324" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5154,10 +5142,10 @@
     </row>
     <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C325" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5166,10 +5154,10 @@
     </row>
     <row r="326" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C326" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5178,10 +5166,10 @@
     </row>
     <row r="327" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C327" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5190,10 +5178,10 @@
     </row>
     <row r="328" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C328" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5202,10 +5190,10 @@
     </row>
     <row r="329" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C329" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5214,10 +5202,10 @@
     </row>
     <row r="330" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C330" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5226,10 +5214,10 @@
     </row>
     <row r="331" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C331" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5238,10 +5226,10 @@
     </row>
     <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C332" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5250,10 +5238,10 @@
     </row>
     <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C333" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5262,10 +5250,10 @@
     </row>
     <row r="334" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C334" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5274,10 +5262,10 @@
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C335" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5286,10 +5274,10 @@
     </row>
     <row r="336" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C336" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5298,10 +5286,10 @@
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C337" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5310,10 +5298,10 @@
     </row>
     <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C338" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5322,10 +5310,10 @@
     </row>
     <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C339" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5334,10 +5322,10 @@
     </row>
     <row r="340" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C340" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5346,10 +5334,10 @@
     </row>
     <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C341" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5358,10 +5346,10 @@
     </row>
     <row r="342" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C342" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5370,10 +5358,10 @@
     </row>
     <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C343" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5382,10 +5370,10 @@
     </row>
     <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C344" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5394,7 +5382,7 @@
     </row>
     <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C345" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5403,10 +5391,10 @@
     </row>
     <row r="346" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C346" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5415,10 +5403,10 @@
     </row>
     <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C347" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5427,10 +5415,10 @@
     </row>
     <row r="348" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C348" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5439,10 +5427,10 @@
     </row>
     <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C349" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5451,10 +5439,10 @@
     </row>
     <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C350" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5463,10 +5451,10 @@
     </row>
     <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C351" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5475,10 +5463,10 @@
     </row>
     <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C352" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5487,10 +5475,10 @@
     </row>
     <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C353" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5499,10 +5487,10 @@
     </row>
     <row r="354" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C354" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5511,10 +5499,10 @@
     </row>
     <row r="355" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C355" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5523,10 +5511,10 @@
     </row>
     <row r="356" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C356" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5535,10 +5523,10 @@
     </row>
     <row r="357" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C357" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5547,10 +5535,10 @@
     </row>
     <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C358" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5559,10 +5547,10 @@
     </row>
     <row r="359" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C359" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5571,10 +5559,10 @@
     </row>
     <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C360" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5583,10 +5571,10 @@
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C361" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5595,10 +5583,10 @@
     </row>
     <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C362" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5607,10 +5595,10 @@
     </row>
     <row r="363" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C363" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5619,10 +5607,10 @@
     </row>
     <row r="364" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C364" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5631,10 +5619,10 @@
     </row>
     <row r="365" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C365" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5643,10 +5631,10 @@
     </row>
     <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C366" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5655,10 +5643,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C367" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5667,10 +5655,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C368" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5679,10 +5667,10 @@
     </row>
     <row r="369" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C369" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5691,10 +5679,10 @@
     </row>
     <row r="370" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C370" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5703,10 +5691,10 @@
     </row>
     <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C371" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5715,7 +5703,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C372" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5724,10 +5712,10 @@
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C373" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5736,10 +5724,10 @@
     </row>
     <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C374" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5748,10 +5736,10 @@
     </row>
     <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C375" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5760,10 +5748,10 @@
     </row>
     <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C376" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5772,10 +5760,10 @@
     </row>
     <row r="377" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C377" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5784,10 +5772,10 @@
     </row>
     <row r="378" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C378" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5796,10 +5784,10 @@
     </row>
     <row r="379" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C379" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5808,10 +5796,10 @@
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C380" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5820,10 +5808,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C381" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5832,10 +5820,10 @@
     </row>
     <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C382" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5844,10 +5832,10 @@
     </row>
     <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C383" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5856,10 +5844,10 @@
     </row>
     <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C384" s="9" t="n">
         <f aca="false">FALSE()</f>
@@ -5868,10 +5856,10 @@
     </row>
     <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C385" s="9" t="n">
         <f aca="false">FALSE()</f>
